--- a/GiaPha.xlsx
+++ b/GiaPha.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5FC19F7-74FF-4525-BC4F-82732793D621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3FB75EE-CC28-4246-AD26-93A46639B92B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2716,9 +2716,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2740,9 +2737,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2753,29 +2747,35 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2796,9 +2796,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2836,9 +2836,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2871,26 +2871,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2923,26 +2906,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3118,7 +3084,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -3130,11 +3096,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -3207,368 +3173,368 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E292D91-1654-45D4-8FDD-BA0AA5265809}">
   <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="9.140625" style="5"/>
-    <col min="7" max="7" width="12" style="5" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="38" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="9.140625" style="4"/>
+    <col min="7" max="7" width="12" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="5"/>
-      <c r="B1" s="5"/>
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="11"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="10"/>
     </row>
     <row r="4" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="11"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="10"/>
     </row>
     <row r="5" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="11"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="10"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8" t="s">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="11"/>
+      <c r="C6" s="10"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="11"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="10"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="11"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="10"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8" t="s">
+      <c r="A10" s="6"/>
+      <c r="B10" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="11"/>
+      <c r="C10" s="10"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="11"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="10"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="11"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="10"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="8" t="s">
+      <c r="A14" s="10"/>
+      <c r="B14" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="11"/>
+      <c r="C14" s="10"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="8" t="s">
+      <c r="A15" s="10"/>
+      <c r="B15" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="11"/>
+      <c r="C15" s="10"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="8" t="s">
+      <c r="A16" s="10"/>
+      <c r="B16" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="11"/>
+      <c r="C16" s="10"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="8" t="s">
+      <c r="A19" s="6"/>
+      <c r="B19" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="7"/>
+      <c r="C19" s="6"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="8" t="s">
+      <c r="A20" s="6"/>
+      <c r="B20" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="7"/>
+      <c r="C20" s="6"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8" t="s">
+      <c r="A21" s="6"/>
+      <c r="B21" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="7"/>
+      <c r="C21" s="6"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8" t="s">
+      <c r="A22" s="6"/>
+      <c r="B22" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="7"/>
+      <c r="C22" s="6"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
     </row>
     <row r="26" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="7"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="6"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
-      <c r="B27" s="8" t="s">
+      <c r="A27" s="11"/>
+      <c r="B27" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="7"/>
+      <c r="C27" s="6"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
-      <c r="B28" s="8" t="s">
+      <c r="A28" s="6"/>
+      <c r="B28" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="7"/>
+      <c r="C28" s="6"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="7"/>
-      <c r="B29" s="8" t="s">
+      <c r="A29" s="6"/>
+      <c r="B29" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="7"/>
-      <c r="B30" s="8" t="s">
+      <c r="A30" s="6"/>
+      <c r="B30" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
-      <c r="B31" s="8" t="s">
+      <c r="A31" s="6"/>
+      <c r="B31" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="7"/>
+      <c r="C31" s="6"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="7"/>
+      <c r="C32" s="6"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
-      <c r="B33" s="8" t="s">
+      <c r="A33" s="6"/>
+      <c r="B33" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="7"/>
+      <c r="C33" s="6"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
-      <c r="B34" s="8" t="s">
+      <c r="A34" s="6"/>
+      <c r="B34" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C34" s="7"/>
+      <c r="C34" s="6"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="7"/>
-      <c r="B38" s="8" t="s">
+      <c r="A38" s="6"/>
+      <c r="B38" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C38" s="7"/>
+      <c r="C38" s="6"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="7"/>
-      <c r="B39" s="8" t="s">
+      <c r="A39" s="6"/>
+      <c r="B39" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C39" s="7"/>
+      <c r="C39" s="6"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="7"/>
-      <c r="B40" s="8" t="s">
+      <c r="A40" s="6"/>
+      <c r="B40" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="7"/>
+      <c r="C40" s="6"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="7"/>
-      <c r="B41" s="8" t="s">
+      <c r="A41" s="6"/>
+      <c r="B41" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C41" s="7"/>
+      <c r="C41" s="6"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="10" t="s">
+      <c r="A42" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C42" s="7"/>
+      <c r="C42" s="6"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="7"/>
-      <c r="B43" s="8" t="s">
+      <c r="A43" s="6"/>
+      <c r="B43" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C43" s="7"/>
+      <c r="C43" s="6"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="7"/>
-      <c r="B44" s="8" t="s">
+      <c r="A44" s="6"/>
+      <c r="B44" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="7"/>
-      <c r="B45" s="8" t="s">
+      <c r="A45" s="6"/>
+      <c r="B45" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="10" t="s">
+      <c r="A46" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B46" s="9"/>
-      <c r="C46" s="7"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="6"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="10" t="s">
+      <c r="A47" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B47" s="9"/>
-      <c r="C47" s="7"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="6"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="9"/>
-      <c r="B48" s="8" t="s">
+      <c r="A48" s="8"/>
+      <c r="B48" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="7"/>
+      <c r="C48" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3588,7 +3554,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E1CE347-E5B3-4800-8904-51F237659016}">
   <dimension ref="A1:C284"/>
   <sheetViews>
-    <sheetView topLeftCell="A247" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D275" sqref="D275"/>
     </sheetView>
   </sheetViews>
@@ -3600,11 +3566,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="24" t="s">
         <v>268</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -3632,7 +3598,7 @@
       <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="13" t="s">
         <v>259</v>
       </c>
       <c r="C5" t="s">
@@ -3640,27 +3606,27 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="13" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="13" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="13" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="13" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="13" t="s">
         <v>236</v>
       </c>
     </row>
@@ -3675,17 +3641,17 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="13" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="13" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="13" t="s">
         <v>232</v>
       </c>
     </row>
@@ -3695,22 +3661,22 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="13" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="13" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="13" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="13" t="s">
         <v>220</v>
       </c>
     </row>
@@ -3720,22 +3686,22 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="13" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="13" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="13" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="13" t="s">
         <v>200</v>
       </c>
     </row>
@@ -3750,16 +3716,16 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="13" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="24" t="s">
         <v>260</v>
       </c>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -3785,27 +3751,27 @@
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B37" s="15" t="s">
+      <c r="B37" s="13" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B38" s="15" t="s">
+      <c r="B38" s="13" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B39" s="15" t="s">
+      <c r="B39" s="13" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B40" s="15" t="s">
+      <c r="B40" s="13" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B41" s="15" t="s">
+      <c r="B41" s="13" t="s">
         <v>170</v>
       </c>
     </row>
@@ -3820,12 +3786,12 @@
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="13" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B45" s="15" t="s">
+      <c r="B45" s="13" t="s">
         <v>249</v>
       </c>
     </row>
@@ -3840,27 +3806,27 @@
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B48" s="15" t="s">
+      <c r="B48" s="13" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B49" s="15" t="s">
+      <c r="B49" s="13" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B50" s="15" t="s">
+      <c r="B50" s="13" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B51" s="15" t="s">
+      <c r="B51" s="13" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B52" s="15" t="s">
+      <c r="B52" s="13" t="s">
         <v>244</v>
       </c>
       <c r="C52" t="s">
@@ -3868,7 +3834,7 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B53" s="15" t="s">
+      <c r="B53" s="13" t="s">
         <v>243</v>
       </c>
       <c r="C53" t="s">
@@ -3886,22 +3852,22 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B56" s="15" t="s">
+      <c r="B56" s="13" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B57" s="15" t="s">
+      <c r="B57" s="13" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B58" s="15" t="s">
+      <c r="B58" s="13" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B59" s="15" t="s">
+      <c r="B59" s="13" t="s">
         <v>237</v>
       </c>
     </row>
@@ -3921,17 +3887,17 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B64" s="15" t="s">
+      <c r="B64" s="13" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B65" s="15" t="s">
+      <c r="B65" s="13" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B66" s="15" t="s">
+      <c r="B66" s="13" t="s">
         <v>131</v>
       </c>
     </row>
@@ -3946,22 +3912,22 @@
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B69" s="15" t="s">
+      <c r="B69" s="13" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B70" s="15" t="s">
+      <c r="B70" s="13" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B71" s="15" t="s">
+      <c r="B71" s="13" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B72" s="15" t="s">
+      <c r="B72" s="13" t="s">
         <v>227</v>
       </c>
     </row>
@@ -3971,12 +3937,12 @@
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B74" s="15" t="s">
+      <c r="B74" s="13" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B75" s="15" t="s">
+      <c r="B75" s="13" t="s">
         <v>224</v>
       </c>
     </row>
@@ -4010,17 +3976,17 @@
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B82" s="15" t="s">
+      <c r="B82" s="13" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B83" s="15" t="s">
+      <c r="B83" s="13" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B84" s="15" t="s">
+      <c r="B84" s="13" t="s">
         <v>217</v>
       </c>
     </row>
@@ -4035,37 +4001,37 @@
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B88" s="15" t="s">
+      <c r="B88" s="13" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B89" s="15" t="s">
+      <c r="B89" s="13" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B90" s="15" t="s">
+      <c r="B90" s="13" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B91" s="15" t="s">
+      <c r="B91" s="13" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B92" s="15" t="s">
+      <c r="B92" s="13" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B93" s="15" t="s">
+      <c r="B93" s="13" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B94" s="15" t="s">
+      <c r="B94" s="13" t="s">
         <v>194</v>
       </c>
     </row>
@@ -4085,27 +4051,27 @@
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="15" t="s">
+      <c r="B99" s="13" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="15" t="s">
+      <c r="B100" s="13" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="15" t="s">
+      <c r="B101" s="13" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="15" t="s">
+      <c r="B102" s="13" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="15" t="s">
+      <c r="B103" s="13" t="s">
         <v>203</v>
       </c>
     </row>
@@ -4120,32 +4086,32 @@
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B107" s="15" t="s">
+      <c r="B107" s="13" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B108" s="15" t="s">
+      <c r="B108" s="13" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B109" s="15" t="s">
+      <c r="B109" s="13" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B110" s="15" t="s">
+      <c r="B110" s="13" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B111" s="15" t="s">
+      <c r="B111" s="13" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B112" s="15" t="s">
+      <c r="B112" s="13" t="s">
         <v>65</v>
       </c>
     </row>
@@ -4155,16 +4121,16 @@
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B114" s="15" t="s">
+      <c r="B114" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="C114" s="18"/>
+      <c r="C114" s="15"/>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B115" s="15" t="s">
+      <c r="B115" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="C115" s="18"/>
+      <c r="C115" s="15"/>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
@@ -4177,88 +4143,88 @@
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B118" s="15" t="s">
+      <c r="B118" s="13" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B119" s="15" t="s">
+      <c r="B119" s="13" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B120" s="15" t="s">
+      <c r="B120" s="13" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B121" s="15" t="s">
+      <c r="B121" s="13" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B122" s="15" t="s">
+      <c r="B122" s="13" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B123" s="15" t="s">
+      <c r="B123" s="13" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B124" s="15" t="s">
+      <c r="B124" s="13" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B125" s="15" t="s">
+      <c r="B125" s="13" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" s="17" t="s">
+      <c r="A127" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="B127" s="17"/>
-      <c r="C127" s="17"/>
+      <c r="B127" s="24"/>
+      <c r="C127" s="24"/>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B128" s="16"/>
-      <c r="C128" s="16"/>
+      <c r="B128" s="14"/>
+      <c r="C128" s="14"/>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B129" s="16"/>
-      <c r="C129" s="16"/>
+      <c r="B129" s="14"/>
+      <c r="C129" s="14"/>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B130" s="15" t="s">
+      <c r="B130" s="13" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B131" s="15" t="s">
+      <c r="B131" s="13" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B132" s="15" t="s">
+      <c r="B132" s="13" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B133" s="15" t="s">
+      <c r="B133" s="13" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B134" s="15" t="s">
+      <c r="B134" s="13" t="s">
         <v>183</v>
       </c>
     </row>
@@ -4273,22 +4239,22 @@
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B138" s="15" t="s">
+      <c r="B138" s="13" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B139" s="15" t="s">
+      <c r="B139" s="13" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B140" s="15" t="s">
+      <c r="B140" s="13" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B141" s="15" t="s">
+      <c r="B141" s="13" t="s">
         <v>177</v>
       </c>
     </row>
@@ -4298,27 +4264,27 @@
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B144" s="15" t="s">
+      <c r="B144" s="13" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B145" s="15" t="s">
+      <c r="B145" s="13" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B146" s="15" t="s">
+      <c r="B146" s="13" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B147" s="15" t="s">
+      <c r="B147" s="13" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B148" s="15" t="s">
+      <c r="B148" s="13" t="s">
         <v>171</v>
       </c>
     </row>
@@ -4328,32 +4294,32 @@
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B150" s="15" t="s">
+      <c r="B150" s="13" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B151" s="15" t="s">
+      <c r="B151" s="13" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B152" s="15" t="s">
+      <c r="B152" s="13" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B153" s="15" t="s">
+      <c r="B153" s="13" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B154" s="15" t="s">
+      <c r="B154" s="13" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B155" s="15" t="s">
+      <c r="B155" s="13" t="s">
         <v>164</v>
       </c>
     </row>
@@ -4373,27 +4339,27 @@
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B160" s="15" t="s">
+      <c r="B160" s="13" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B161" s="15" t="s">
+      <c r="B161" s="13" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B162" s="15" t="s">
+      <c r="B162" s="13" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B163" s="15" t="s">
+      <c r="B163" s="13" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B164" s="15" t="s">
+      <c r="B164" s="13" t="s">
         <v>156</v>
       </c>
       <c r="C164" t="s">
@@ -4411,12 +4377,12 @@
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B167" s="15" t="s">
+      <c r="B167" s="13" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B168" s="15" t="s">
+      <c r="B168" s="13" t="s">
         <v>152</v>
       </c>
     </row>
@@ -4431,27 +4397,27 @@
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B172" s="15" t="s">
+      <c r="B172" s="13" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B173" s="15" t="s">
+      <c r="B173" s="13" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B174" s="15" t="s">
+      <c r="B174" s="13" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B175" s="15" t="s">
+      <c r="B175" s="13" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B176" s="15" t="s">
+      <c r="B176" s="13" t="s">
         <v>145</v>
       </c>
     </row>
@@ -4466,22 +4432,22 @@
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B180" s="15" t="s">
+      <c r="B180" s="13" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B181" s="15" t="s">
+      <c r="B181" s="13" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B182" s="15" t="s">
+      <c r="B182" s="13" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B183" s="15" t="s">
+      <c r="B183" s="13" t="s">
         <v>139</v>
       </c>
     </row>
@@ -4496,7 +4462,7 @@
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B187" s="15" t="s">
+      <c r="B187" s="13" t="s">
         <v>136</v>
       </c>
       <c r="C187" t="s">
@@ -4504,22 +4470,22 @@
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B188" s="15" t="s">
+      <c r="B188" s="13" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B189" s="15" t="s">
+      <c r="B189" s="13" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B190" s="15" t="s">
+      <c r="B190" s="13" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B191" s="15" t="s">
+      <c r="B191" s="13" t="s">
         <v>132</v>
       </c>
     </row>
@@ -4534,22 +4500,22 @@
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B195" s="15" t="s">
+      <c r="B195" s="13" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B196" s="15" t="s">
+      <c r="B196" s="13" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B197" s="15" t="s">
+      <c r="B197" s="13" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B198" s="15" t="s">
+      <c r="B198" s="13" t="s">
         <v>126</v>
       </c>
     </row>
@@ -4564,22 +4530,22 @@
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B202" s="15" t="s">
+      <c r="B202" s="13" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B203" s="15" t="s">
+      <c r="B203" s="13" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B204" s="15" t="s">
+      <c r="B204" s="13" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B205" s="15" t="s">
+      <c r="B205" s="13" t="s">
         <v>120</v>
       </c>
       <c r="C205" t="s">
@@ -4587,7 +4553,7 @@
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B206" s="15" t="s">
+      <c r="B206" s="13" t="s">
         <v>119</v>
       </c>
     </row>
@@ -4607,7 +4573,7 @@
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B211" s="15" t="s">
+      <c r="B211" s="13" t="s">
         <v>115</v>
       </c>
       <c r="C211" t="s">
@@ -4615,32 +4581,32 @@
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B212" s="15" t="s">
+      <c r="B212" s="13" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B213" s="15" t="s">
+      <c r="B213" s="13" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B214" s="15" t="s">
+      <c r="B214" s="13" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B215" s="15" t="s">
+      <c r="B215" s="13" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B216" s="15" t="s">
+      <c r="B216" s="13" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B217" s="15" t="s">
+      <c r="B217" s="13" t="s">
         <v>109</v>
       </c>
     </row>
@@ -4655,22 +4621,22 @@
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B221" s="15" t="s">
+      <c r="B221" s="13" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B222" s="15" t="s">
+      <c r="B222" s="13" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B223" s="15" t="s">
+      <c r="B223" s="13" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B224" s="15" t="s">
+      <c r="B224" s="13" t="s">
         <v>103</v>
       </c>
     </row>
@@ -4685,22 +4651,22 @@
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B228" s="15" t="s">
+      <c r="B228" s="13" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B229" s="15" t="s">
+      <c r="B229" s="13" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B230" s="15" t="s">
+      <c r="B230" s="13" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B231" s="15" t="s">
+      <c r="B231" s="13" t="s">
         <v>97</v>
       </c>
     </row>
@@ -4715,27 +4681,27 @@
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B235" s="15" t="s">
+      <c r="B235" s="13" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B236" s="15" t="s">
+      <c r="B236" s="13" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B237" s="15" t="s">
+      <c r="B237" s="13" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B238" s="15" t="s">
+      <c r="B238" s="13" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B239" s="15" t="s">
+      <c r="B239" s="13" t="s">
         <v>90</v>
       </c>
     </row>
@@ -4750,32 +4716,32 @@
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B243" s="15" t="s">
+      <c r="B243" s="13" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B244" s="15" t="s">
+      <c r="B244" s="13" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B245" s="15" t="s">
+      <c r="B245" s="13" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B246" s="15" t="s">
+      <c r="B246" s="13" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B247" s="15" t="s">
+      <c r="B247" s="13" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B248" s="15" t="s">
+      <c r="B248" s="13" t="s">
         <v>82</v>
       </c>
     </row>
@@ -4790,22 +4756,22 @@
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B252" s="15" t="s">
+      <c r="B252" s="13" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B253" s="15" t="s">
+      <c r="B253" s="13" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B254" s="15" t="s">
+      <c r="B254" s="13" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B255" s="15" t="s">
+      <c r="B255" s="13" t="s">
         <v>76</v>
       </c>
     </row>
@@ -4820,27 +4786,27 @@
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B258" s="15" t="s">
+      <c r="B258" s="13" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B259" s="15" t="s">
+      <c r="B259" s="13" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B260" s="15" t="s">
+      <c r="B260" s="13" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B261" s="15" t="s">
+      <c r="B261" s="13" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B262" s="15" t="s">
+      <c r="B262" s="13" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4855,12 +4821,12 @@
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B266" s="15" t="s">
+      <c r="B266" s="13" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B267" s="15" t="s">
+      <c r="B267" s="13" t="s">
         <v>66</v>
       </c>
     </row>
@@ -4890,22 +4856,22 @@
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B276" s="15" t="s">
+      <c r="B276" s="13" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B277" s="15" t="s">
+      <c r="B277" s="13" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B278" s="15" t="s">
+      <c r="B278" s="13" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B279" s="15" t="s">
+      <c r="B279" s="13" t="s">
         <v>57</v>
       </c>
     </row>
@@ -4915,22 +4881,22 @@
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B281" s="15" t="s">
+      <c r="B281" s="13" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B282" s="15" t="s">
+      <c r="B282" s="13" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B283" s="15" t="s">
+      <c r="B283" s="13" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B284" s="15" t="s">
+      <c r="B284" s="13" t="s">
         <v>52</v>
       </c>
     </row>
@@ -4949,7 +4915,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67FA8E95-936B-4B84-B604-3CD4518F4B1A}">
   <dimension ref="A1:B352"/>
   <sheetViews>
-    <sheetView topLeftCell="A331" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A310" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E342" sqref="E342"/>
     </sheetView>
   </sheetViews>
@@ -4961,10 +4927,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="21"/>
+      <c r="B1" s="25"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -4977,22 +4943,22 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="13" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="13" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="13" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="13" t="s">
         <v>558</v>
       </c>
     </row>
@@ -5007,32 +4973,32 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="13" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="13" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="13" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="13" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="13" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="13" t="s">
         <v>552</v>
       </c>
     </row>
@@ -5047,27 +5013,27 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="13" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="13" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="13" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="13" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="13" t="s">
         <v>546</v>
       </c>
     </row>
@@ -5082,17 +5048,17 @@
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="13" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="13" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="13" t="s">
         <v>245</v>
       </c>
     </row>
@@ -5107,32 +5073,32 @@
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="13" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="13" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="13" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="13" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="13" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="13" t="s">
         <v>535</v>
       </c>
     </row>
@@ -5147,17 +5113,17 @@
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B38" s="15" t="s">
+      <c r="B38" s="13" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B39" s="15" t="s">
+      <c r="B39" s="13" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B40" s="15" t="s">
+      <c r="B40" s="13" t="s">
         <v>532</v>
       </c>
     </row>
@@ -5172,27 +5138,27 @@
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="13" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="13" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B45" s="15" t="s">
+      <c r="B45" s="13" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B46" s="15" t="s">
+      <c r="B46" s="13" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B47" s="15" t="s">
+      <c r="B47" s="13" t="s">
         <v>471</v>
       </c>
     </row>
@@ -5207,32 +5173,32 @@
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B50" s="15" t="s">
+      <c r="B50" s="13" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B51" s="15" t="s">
+      <c r="B51" s="13" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B52" s="15" t="s">
+      <c r="B52" s="13" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B53" s="15" t="s">
+      <c r="B53" s="13" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B54" s="15" t="s">
+      <c r="B54" s="13" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B55" s="15" t="s">
+      <c r="B55" s="13" t="s">
         <v>521</v>
       </c>
     </row>
@@ -5247,12 +5213,12 @@
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B58" s="15" t="s">
+      <c r="B58" s="13" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B59" s="15" t="s">
+      <c r="B59" s="13" t="s">
         <v>517</v>
       </c>
     </row>
@@ -5267,33 +5233,33 @@
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B62" s="15" t="s">
+      <c r="B62" s="13" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B63" s="15" t="s">
+      <c r="B63" s="13" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B64" s="15" t="s">
+      <c r="B64" s="13" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B65" s="15" t="s">
+      <c r="B65" s="13" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B66" s="15" t="s">
+      <c r="B66" s="13" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="15"/>
-      <c r="B67" s="15"/>
+      <c r="A67" s="13"/>
+      <c r="B67" s="13"/>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
@@ -5316,32 +5282,32 @@
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B72" s="15" t="s">
+      <c r="B72" s="13" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B73" s="15" t="s">
+      <c r="B73" s="13" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B74" s="15" t="s">
+      <c r="B74" s="13" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B75" s="15" t="s">
+      <c r="B75" s="13" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B76" s="15" t="s">
+      <c r="B76" s="13" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B77" s="15" t="s">
+      <c r="B77" s="13" t="s">
         <v>505</v>
       </c>
     </row>
@@ -5356,27 +5322,27 @@
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B80" s="15" t="s">
+      <c r="B80" s="13" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B81" s="15" t="s">
+      <c r="B81" s="13" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B82" s="15" t="s">
+      <c r="B82" s="13" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B83" s="15" t="s">
+      <c r="B83" s="13" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B84" s="15" t="s">
+      <c r="B84" s="13" t="s">
         <v>500</v>
       </c>
     </row>
@@ -5391,37 +5357,37 @@
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B87" s="15" t="s">
+      <c r="B87" s="13" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B88" s="15" t="s">
+      <c r="B88" s="13" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B89" s="15" t="s">
+      <c r="B89" s="13" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B90" s="15" t="s">
+      <c r="B90" s="13" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B91" s="15" t="s">
+      <c r="B91" s="13" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B92" s="15" t="s">
+      <c r="B92" s="13" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B93" s="15" t="s">
+      <c r="B93" s="13" t="s">
         <v>492</v>
       </c>
     </row>
@@ -5436,32 +5402,32 @@
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B96" s="15" t="s">
+      <c r="B96" s="13" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="15" t="s">
+      <c r="B97" s="13" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="15" t="s">
+      <c r="B98" s="13" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="15" t="s">
+      <c r="B99" s="13" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="15" t="s">
+      <c r="B100" s="13" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="15" t="s">
+      <c r="B101" s="13" t="s">
         <v>485</v>
       </c>
     </row>
@@ -5476,17 +5442,17 @@
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="15" t="s">
+      <c r="B104" s="13" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="15" t="s">
+      <c r="B105" s="13" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B106" s="15" t="s">
+      <c r="B106" s="13" t="s">
         <v>481</v>
       </c>
     </row>
@@ -5501,22 +5467,22 @@
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B109" s="15" t="s">
+      <c r="B109" s="13" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B110" s="15" t="s">
+      <c r="B110" s="13" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B111" s="15" t="s">
+      <c r="B111" s="13" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B112" s="15" t="s">
+      <c r="B112" s="13" t="s">
         <v>476</v>
       </c>
     </row>
@@ -5531,32 +5497,32 @@
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B115" s="15" t="s">
+      <c r="B115" s="13" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B116" s="15" t="s">
+      <c r="B116" s="13" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B117" s="15" t="s">
+      <c r="B117" s="13" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B118" s="15" t="s">
+      <c r="B118" s="13" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B119" s="15" t="s">
+      <c r="B119" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B120" s="15" t="s">
+      <c r="B120" s="13" t="s">
         <v>428</v>
       </c>
     </row>
@@ -5571,37 +5537,37 @@
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B123" s="15" t="s">
+      <c r="B123" s="13" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B124" s="15" t="s">
+      <c r="B124" s="13" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B125" s="15" t="s">
+      <c r="B125" s="13" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B126" s="15" t="s">
+      <c r="B126" s="13" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B127" s="15" t="s">
+      <c r="B127" s="13" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B128" s="15" t="s">
+      <c r="B128" s="13" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B129" s="15" t="s">
+      <c r="B129" s="13" t="s">
         <v>462</v>
       </c>
     </row>
@@ -5616,32 +5582,32 @@
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B132" s="15" t="s">
+      <c r="B132" s="13" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B133" s="15" t="s">
+      <c r="B133" s="13" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B134" s="15" t="s">
+      <c r="B134" s="13" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B135" s="15" t="s">
+      <c r="B135" s="13" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B136" s="15" t="s">
+      <c r="B136" s="13" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B137" s="15" t="s">
+      <c r="B137" s="13" t="s">
         <v>456</v>
       </c>
     </row>
@@ -5656,37 +5622,37 @@
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B140" s="15" t="s">
+      <c r="B140" s="13" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B141" s="15" t="s">
+      <c r="B141" s="13" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B142" s="15" t="s">
+      <c r="B142" s="13" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B143" s="15" t="s">
+      <c r="B143" s="13" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B144" s="15" t="s">
+      <c r="B144" s="13" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B145" s="15" t="s">
+      <c r="B145" s="13" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B146" s="15" t="s">
+      <c r="B146" s="13" t="s">
         <v>449</v>
       </c>
     </row>
@@ -5701,27 +5667,27 @@
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B149" s="15" t="s">
+      <c r="B149" s="13" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B150" s="15" t="s">
+      <c r="B150" s="13" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B151" s="15" t="s">
+      <c r="B151" s="13" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B152" s="15" t="s">
+      <c r="B152" s="13" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B153" s="15" t="s">
+      <c r="B153" s="13" t="s">
         <v>443</v>
       </c>
     </row>
@@ -5736,27 +5702,27 @@
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B156" s="15" t="s">
+      <c r="B156" s="13" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B157" s="15" t="s">
+      <c r="B157" s="13" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B158" s="15" t="s">
+      <c r="B158" s="13" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B159" s="15" t="s">
+      <c r="B159" s="13" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B160" s="15" t="s">
+      <c r="B160" s="13" t="s">
         <v>437</v>
       </c>
     </row>
@@ -5774,17 +5740,17 @@
       <c r="A163" t="s">
         <v>366</v>
       </c>
-      <c r="B163" s="15" t="s">
+      <c r="B163" s="13" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B164" s="15" t="s">
+      <c r="B164" s="13" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B165" s="15" t="s">
+      <c r="B165" s="13" t="s">
         <v>433</v>
       </c>
     </row>
@@ -5802,27 +5768,27 @@
       <c r="A168" t="s">
         <v>366</v>
       </c>
-      <c r="B168" s="15" t="s">
+      <c r="B168" s="13" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B169" s="15" t="s">
+      <c r="B169" s="13" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B170" s="15" t="s">
+      <c r="B170" s="13" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B171" s="15" t="s">
+      <c r="B171" s="13" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B172" s="15" t="s">
+      <c r="B172" s="13" t="s">
         <v>78</v>
       </c>
     </row>
@@ -5845,27 +5811,27 @@
       <c r="A176" t="s">
         <v>366</v>
       </c>
-      <c r="B176" s="15" t="s">
+      <c r="B176" s="13" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B177" s="15" t="s">
+      <c r="B177" s="13" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B178" s="15" t="s">
+      <c r="B178" s="13" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B179" s="15" t="s">
+      <c r="B179" s="13" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B180" s="15" t="s">
+      <c r="B180" s="13" t="s">
         <v>420</v>
       </c>
     </row>
@@ -5883,7 +5849,7 @@
       <c r="A183" t="s">
         <v>366</v>
       </c>
-      <c r="B183" s="15" t="s">
+      <c r="B183" s="13" t="s">
         <v>417</v>
       </c>
     </row>
@@ -5901,32 +5867,32 @@
       <c r="A186" t="s">
         <v>366</v>
       </c>
-      <c r="B186" s="15" t="s">
+      <c r="B186" s="13" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B187" s="15" t="s">
+      <c r="B187" s="13" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B188" s="15" t="s">
+      <c r="B188" s="13" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B189" s="15" t="s">
+      <c r="B189" s="13" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B190" s="15" t="s">
+      <c r="B190" s="13" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B191" s="15" t="s">
+      <c r="B191" s="13" t="s">
         <v>410</v>
       </c>
     </row>
@@ -5944,22 +5910,22 @@
       <c r="A194" t="s">
         <v>366</v>
       </c>
-      <c r="B194" s="15" t="s">
+      <c r="B194" s="13" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B195" s="15" t="s">
+      <c r="B195" s="13" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B196" s="15" t="s">
+      <c r="B196" s="13" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B197" s="15" t="s">
+      <c r="B197" s="13" t="s">
         <v>76</v>
       </c>
     </row>
@@ -5969,7 +5935,7 @@
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B199" s="15" t="s">
+      <c r="B199" s="13" t="s">
         <v>404</v>
       </c>
     </row>
@@ -5992,17 +5958,17 @@
       <c r="A203" t="s">
         <v>366</v>
       </c>
-      <c r="B203" s="15" t="s">
+      <c r="B203" s="13" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B204" s="15" t="s">
+      <c r="B204" s="13" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B205" s="15" t="s">
+      <c r="B205" s="13" t="s">
         <v>398</v>
       </c>
     </row>
@@ -6020,22 +5986,22 @@
       <c r="A208" t="s">
         <v>366</v>
       </c>
-      <c r="B208" s="15" t="s">
+      <c r="B208" s="13" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B209" s="15" t="s">
+      <c r="B209" s="13" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B210" s="15" t="s">
+      <c r="B210" s="13" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B211" s="15" t="s">
+      <c r="B211" s="13" t="s">
         <v>374</v>
       </c>
     </row>
@@ -6053,22 +6019,22 @@
       <c r="A214" t="s">
         <v>366</v>
       </c>
-      <c r="B214" s="15" t="s">
+      <c r="B214" s="13" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B215" s="15" t="s">
+      <c r="B215" s="13" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B216" s="15" t="s">
+      <c r="B216" s="13" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B217" s="15" t="s">
+      <c r="B217" s="13" t="s">
         <v>389</v>
       </c>
     </row>
@@ -6086,22 +6052,22 @@
       <c r="A220" t="s">
         <v>366</v>
       </c>
-      <c r="B220" s="15" t="s">
+      <c r="B220" s="13" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B221" s="15" t="s">
+      <c r="B221" s="13" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B222" s="15" t="s">
+      <c r="B222" s="13" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B223" s="15" t="s">
+      <c r="B223" s="13" t="s">
         <v>384</v>
       </c>
     </row>
@@ -6114,7 +6080,7 @@
       <c r="A225" t="s">
         <v>366</v>
       </c>
-      <c r="B225" s="15" t="s">
+      <c r="B225" s="13" t="s">
         <v>382</v>
       </c>
     </row>
@@ -6132,12 +6098,12 @@
       <c r="A228" t="s">
         <v>366</v>
       </c>
-      <c r="B228" s="15" t="s">
+      <c r="B228" s="13" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B229" s="15" t="s">
+      <c r="B229" s="13" t="s">
         <v>378</v>
       </c>
     </row>
@@ -6155,17 +6121,17 @@
       <c r="A232" t="s">
         <v>366</v>
       </c>
-      <c r="B232" s="15" t="s">
+      <c r="B232" s="13" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B233" s="15" t="s">
+      <c r="B233" s="13" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B234" s="15" t="s">
+      <c r="B234" s="13" t="s">
         <v>373</v>
       </c>
     </row>
@@ -6183,12 +6149,12 @@
       <c r="A237" t="s">
         <v>366</v>
       </c>
-      <c r="B237" s="15" t="s">
+      <c r="B237" s="13" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B238" s="15" t="s">
+      <c r="B238" s="13" t="s">
         <v>369</v>
       </c>
     </row>
@@ -6206,22 +6172,22 @@
       <c r="A241" t="s">
         <v>366</v>
       </c>
-      <c r="B241" s="15" t="s">
+      <c r="B241" s="13" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B242" s="15" t="s">
+      <c r="B242" s="13" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B243" s="15" t="s">
+      <c r="B243" s="13" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B244" s="15" t="s">
+      <c r="B244" s="13" t="s">
         <v>362</v>
       </c>
     </row>
@@ -6229,17 +6195,17 @@
       <c r="A245" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="B245" s="20"/>
+      <c r="B245" s="17"/>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="B246" s="20"/>
+      <c r="B246" s="17"/>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A247" s="20"/>
-      <c r="B247" s="15" t="s">
+      <c r="A247" s="17"/>
+      <c r="B247" s="13" t="s">
         <v>359</v>
       </c>
     </row>
@@ -6247,556 +6213,556 @@
       <c r="A248" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="B248" s="20"/>
+      <c r="B248" s="17"/>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="B249" s="20"/>
+      <c r="B249" s="17"/>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A250" s="20"/>
-      <c r="B250" s="15" t="s">
+      <c r="A250" s="17"/>
+      <c r="B250" s="13" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A251" s="20"/>
-      <c r="B251" s="15" t="s">
+      <c r="A251" s="17"/>
+      <c r="B251" s="13" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A252" s="20"/>
-      <c r="B252" s="15" t="s">
+      <c r="A252" s="17"/>
+      <c r="B252" s="13" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A253" s="20"/>
-      <c r="B253" s="15" t="s">
+      <c r="A253" s="17"/>
+      <c r="B253" s="13" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A254" s="20"/>
-      <c r="B254" s="15" t="s">
+      <c r="A254" s="17"/>
+      <c r="B254" s="13" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A255" s="20"/>
-      <c r="B255" s="15" t="s">
+      <c r="A255" s="17"/>
+      <c r="B255" s="13" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B256" s="20"/>
+      <c r="B256" s="17"/>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="B257" s="20"/>
+      <c r="B257" s="17"/>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A258" s="20"/>
-      <c r="B258" s="15" t="s">
+      <c r="A258" s="17"/>
+      <c r="B258" s="13" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A259" s="20" t="s">
+      <c r="A259" s="17" t="s">
         <v>348</v>
       </c>
-      <c r="B259" s="20"/>
+      <c r="B259" s="17"/>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A260" s="20" t="s">
+      <c r="A260" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="B260" s="20"/>
+      <c r="B260" s="17"/>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A261" s="20" t="s">
+      <c r="A261" s="17" t="s">
         <v>346</v>
       </c>
-      <c r="B261" s="20"/>
+      <c r="B261" s="17"/>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A262" s="20"/>
-      <c r="B262" s="20"/>
+      <c r="A262" s="17"/>
+      <c r="B262" s="17"/>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="B263" s="20"/>
+      <c r="B263" s="17"/>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="B264" s="20"/>
+      <c r="B264" s="17"/>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A265" s="20"/>
-      <c r="B265" s="15" t="s">
+      <c r="A265" s="17"/>
+      <c r="B265" s="13" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A266" s="20"/>
-      <c r="B266" s="15" t="s">
+      <c r="A266" s="17"/>
+      <c r="B266" s="13" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A267" s="20"/>
-      <c r="B267" s="15" t="s">
+      <c r="A267" s="17"/>
+      <c r="B267" s="13" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A268" s="20"/>
-      <c r="B268" s="20"/>
+      <c r="A268" s="17"/>
+      <c r="B268" s="17"/>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="B269" s="20"/>
+      <c r="B269" s="17"/>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A270" s="20" t="s">
+      <c r="A270" s="17" t="s">
         <v>339</v>
       </c>
-      <c r="B270" s="20"/>
+      <c r="B270" s="17"/>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A271" s="20"/>
-      <c r="B271" s="15" t="s">
+      <c r="A271" s="17"/>
+      <c r="B271" s="13" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A272" s="20"/>
-      <c r="B272" s="15" t="s">
+      <c r="A272" s="17"/>
+      <c r="B272" s="13" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A273" s="20"/>
-      <c r="B273" s="15" t="s">
+      <c r="A273" s="17"/>
+      <c r="B273" s="13" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A274" s="20"/>
-      <c r="B274" s="15" t="s">
+      <c r="A274" s="17"/>
+      <c r="B274" s="13" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A275" s="20"/>
-      <c r="B275" s="20"/>
+      <c r="A275" s="17"/>
+      <c r="B275" s="17"/>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="B276" s="20"/>
+      <c r="B276" s="17"/>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="B277" s="20"/>
+      <c r="B277" s="17"/>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A278" s="20"/>
-      <c r="B278" s="15" t="s">
+      <c r="A278" s="17"/>
+      <c r="B278" s="13" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A279" s="20"/>
-      <c r="B279" s="15" t="s">
+      <c r="A279" s="17"/>
+      <c r="B279" s="13" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A280" s="20"/>
-      <c r="B280" s="15" t="s">
+      <c r="A280" s="17"/>
+      <c r="B280" s="13" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A281" s="20"/>
-      <c r="B281" s="15" t="s">
+      <c r="A281" s="17"/>
+      <c r="B281" s="13" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A282" s="20"/>
-      <c r="B282" s="15" t="s">
+      <c r="A282" s="17"/>
+      <c r="B282" s="13" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A283" s="20"/>
-      <c r="B283" s="15" t="s">
+      <c r="A283" s="17"/>
+      <c r="B283" s="13" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A284" s="20"/>
-      <c r="B284" s="20"/>
+      <c r="A284" s="17"/>
+      <c r="B284" s="17"/>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="B285" s="20"/>
+      <c r="B285" s="17"/>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="B286" s="20"/>
+      <c r="B286" s="17"/>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A287" s="20"/>
-      <c r="B287" s="15" t="s">
+      <c r="A287" s="17"/>
+      <c r="B287" s="13" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A288" s="20"/>
-      <c r="B288" s="15" t="s">
+      <c r="A288" s="17"/>
+      <c r="B288" s="13" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A289" s="20"/>
-      <c r="B289" s="15" t="s">
+      <c r="A289" s="17"/>
+      <c r="B289" s="13" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A290" s="20"/>
-      <c r="B290" s="20"/>
+      <c r="A290" s="17"/>
+      <c r="B290" s="17"/>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B291" s="20"/>
+      <c r="B291" s="17"/>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="B292" s="20"/>
+      <c r="B292" s="17"/>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A293" s="20"/>
-      <c r="B293" s="15" t="s">
+      <c r="A293" s="17"/>
+      <c r="B293" s="13" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A294" s="20"/>
-      <c r="B294" s="15" t="s">
+      <c r="A294" s="17"/>
+      <c r="B294" s="13" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A295" s="20"/>
-      <c r="B295" s="15" t="s">
+      <c r="A295" s="17"/>
+      <c r="B295" s="13" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A296" s="20"/>
-      <c r="B296" s="15" t="s">
+      <c r="A296" s="17"/>
+      <c r="B296" s="13" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A297" s="20"/>
-      <c r="B297" s="15" t="s">
+      <c r="A297" s="17"/>
+      <c r="B297" s="13" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A298" s="20"/>
-      <c r="B298" s="20"/>
+      <c r="A298" s="17"/>
+      <c r="B298" s="17"/>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="B299" s="20"/>
+      <c r="B299" s="17"/>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B300" s="20"/>
+      <c r="B300" s="17"/>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A301" s="20"/>
-      <c r="B301" s="15" t="s">
+      <c r="A301" s="17"/>
+      <c r="B301" s="13" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A302" s="20"/>
-      <c r="B302" s="15" t="s">
+      <c r="A302" s="17"/>
+      <c r="B302" s="13" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A303" s="20"/>
-      <c r="B303" s="15" t="s">
+      <c r="A303" s="17"/>
+      <c r="B303" s="13" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A304" s="20"/>
-      <c r="B304" s="15" t="s">
+      <c r="A304" s="17"/>
+      <c r="B304" s="13" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A305" s="20"/>
-      <c r="B305" s="15" t="s">
+      <c r="A305" s="17"/>
+      <c r="B305" s="13" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A306" s="20"/>
-      <c r="B306" s="20"/>
+      <c r="A306" s="17"/>
+      <c r="B306" s="17"/>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="B307" s="20"/>
+      <c r="B307" s="17"/>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="B308" s="20"/>
+      <c r="B308" s="17"/>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A309" s="20"/>
-      <c r="B309" s="15" t="s">
+      <c r="A309" s="17"/>
+      <c r="B309" s="13" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A310" s="20"/>
-      <c r="B310" s="15" t="s">
+      <c r="A310" s="17"/>
+      <c r="B310" s="13" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A311" s="20"/>
-      <c r="B311" s="15" t="s">
+      <c r="A311" s="17"/>
+      <c r="B311" s="13" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A312" s="20"/>
-      <c r="B312" s="20"/>
+      <c r="A312" s="17"/>
+      <c r="B312" s="17"/>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="B313" s="20"/>
+      <c r="B313" s="17"/>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="B314" s="20"/>
+      <c r="B314" s="17"/>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A315" s="20"/>
-      <c r="B315" s="15" t="s">
+      <c r="A315" s="17"/>
+      <c r="B315" s="13" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A316" s="20"/>
-      <c r="B316" s="15" t="s">
+      <c r="A316" s="17"/>
+      <c r="B316" s="13" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A317" s="20"/>
-      <c r="B317" s="15" t="s">
+      <c r="A317" s="17"/>
+      <c r="B317" s="13" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A318" s="20"/>
-      <c r="B318" s="15" t="s">
+      <c r="A318" s="17"/>
+      <c r="B318" s="13" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A319" s="20"/>
-      <c r="B319" s="15" t="s">
+      <c r="A319" s="17"/>
+      <c r="B319" s="13" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A320" s="20"/>
-      <c r="B320" s="15" t="s">
+      <c r="A320" s="17"/>
+      <c r="B320" s="13" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A321" s="20"/>
-      <c r="B321" s="20"/>
+      <c r="A321" s="17"/>
+      <c r="B321" s="17"/>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="B322" s="20"/>
+      <c r="B322" s="17"/>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B323" s="20"/>
+      <c r="B323" s="17"/>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A324" s="20"/>
-      <c r="B324" s="15" t="s">
+      <c r="A324" s="17"/>
+      <c r="B324" s="13" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A325" s="20"/>
-      <c r="B325" s="15" t="s">
+      <c r="A325" s="17"/>
+      <c r="B325" s="13" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A326" s="20"/>
-      <c r="B326" s="15" t="s">
+      <c r="A326" s="17"/>
+      <c r="B326" s="13" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A327" s="20"/>
-      <c r="B327" s="15" t="s">
+      <c r="A327" s="17"/>
+      <c r="B327" s="13" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A328" s="20"/>
-      <c r="B328" s="20"/>
+      <c r="A328" s="17"/>
+      <c r="B328" s="17"/>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B329" s="20"/>
+      <c r="B329" s="17"/>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B330" s="20"/>
+      <c r="B330" s="17"/>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A331" s="20"/>
-      <c r="B331" s="15" t="s">
+      <c r="A331" s="17"/>
+      <c r="B331" s="13" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A332" s="20"/>
-      <c r="B332" s="15" t="s">
+      <c r="A332" s="17"/>
+      <c r="B332" s="13" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A333" s="20"/>
-      <c r="B333" s="15" t="s">
+      <c r="A333" s="17"/>
+      <c r="B333" s="13" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A334" s="20"/>
-      <c r="B334" s="15" t="s">
+      <c r="A334" s="17"/>
+      <c r="B334" s="13" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A335" s="20"/>
-      <c r="B335" s="15" t="s">
+      <c r="A335" s="17"/>
+      <c r="B335" s="13" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A336" s="20"/>
-      <c r="B336" s="15" t="s">
+      <c r="A336" s="17"/>
+      <c r="B336" s="13" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A337" s="20"/>
-      <c r="B337" s="20"/>
+      <c r="A337" s="17"/>
+      <c r="B337" s="17"/>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="B338" s="20"/>
+      <c r="B338" s="17"/>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B339" s="20"/>
+      <c r="B339" s="17"/>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A340" s="20"/>
-      <c r="B340" s="15" t="s">
+      <c r="A340" s="17"/>
+      <c r="B340" s="13" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A341" s="20"/>
-      <c r="B341" s="15" t="s">
+      <c r="A341" s="17"/>
+      <c r="B341" s="13" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A342" s="20"/>
-      <c r="B342" s="15" t="s">
+      <c r="A342" s="17"/>
+      <c r="B342" s="13" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A343" s="20"/>
-      <c r="B343" s="15" t="s">
+      <c r="A343" s="17"/>
+      <c r="B343" s="13" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A344" s="20"/>
-      <c r="B344" s="15" t="s">
+      <c r="A344" s="17"/>
+      <c r="B344" s="13" t="s">
         <v>276</v>
       </c>
     </row>
@@ -6811,34 +6777,34 @@
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A347" s="19"/>
-      <c r="B347" s="15" t="s">
+      <c r="A347" s="16"/>
+      <c r="B347" s="13" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A348" s="19"/>
-      <c r="B348" s="15" t="s">
+      <c r="A348" s="16"/>
+      <c r="B348" s="13" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B349" s="15" t="s">
+      <c r="B349" s="13" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B350" s="15" t="s">
+      <c r="B350" s="13" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B351" s="15" t="s">
+      <c r="B351" s="13" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B352" s="15" t="s">
+      <c r="B352" s="13" t="s">
         <v>269</v>
       </c>
     </row>
@@ -6855,7 +6821,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74EE91E9-BE30-434F-89BE-5EB61F96E2D2}">
   <dimension ref="A1:C473"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -6867,2876 +6833,2876 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="26" t="s">
         <v>814</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="7"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="6"/>
     </row>
     <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="19" t="s">
         <v>561</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="19" t="s">
         <v>354</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8" t="s">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="C5" s="7"/>
+      <c r="C5" s="6"/>
     </row>
     <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8" t="s">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7" t="s">
         <v>572</v>
       </c>
-      <c r="C6" s="7"/>
+      <c r="C6" s="6"/>
     </row>
     <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8" t="s">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="C7" s="7"/>
+      <c r="C7" s="6"/>
     </row>
     <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8" t="s">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="7"/>
+      <c r="C8" s="6"/>
     </row>
     <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="19" t="s">
         <v>559</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
     </row>
     <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="19" t="s">
         <v>813</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
     </row>
     <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8" t="s">
+      <c r="A11" s="6"/>
+      <c r="B11" s="7" t="s">
         <v>812</v>
       </c>
-      <c r="C11" s="7"/>
+      <c r="C11" s="6"/>
     </row>
     <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8" t="s">
+      <c r="A12" s="6"/>
+      <c r="B12" s="7" t="s">
         <v>811</v>
       </c>
-      <c r="C12" s="7"/>
+      <c r="C12" s="6"/>
     </row>
     <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="19" t="s">
         <v>810</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
     </row>
     <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="19" t="s">
         <v>809</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
     </row>
     <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8" t="s">
+      <c r="A15" s="6"/>
+      <c r="B15" s="7" t="s">
         <v>473</v>
       </c>
-      <c r="C15" s="7"/>
+      <c r="C15" s="6"/>
     </row>
     <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8" t="s">
+      <c r="A16" s="6"/>
+      <c r="B16" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="7"/>
+      <c r="C16" s="6"/>
     </row>
     <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="8" t="s">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7" t="s">
         <v>568</v>
       </c>
-      <c r="C17" s="7"/>
+      <c r="C17" s="6"/>
     </row>
     <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="19" t="s">
         <v>558</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
     </row>
     <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="19" t="s">
         <v>808</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
     </row>
     <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="8" t="s">
+      <c r="A20" s="6"/>
+      <c r="B20" s="7" t="s">
         <v>807</v>
       </c>
-      <c r="C20" s="7"/>
+      <c r="C20" s="6"/>
     </row>
     <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8" t="s">
+      <c r="A21" s="6"/>
+      <c r="B21" s="7" t="s">
         <v>806</v>
       </c>
-      <c r="C21" s="7"/>
+      <c r="C21" s="6"/>
     </row>
     <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8" t="s">
+      <c r="A22" s="6"/>
+      <c r="B22" s="7" t="s">
         <v>805</v>
       </c>
-      <c r="C22" s="7"/>
+      <c r="C22" s="6"/>
     </row>
     <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="19" t="s">
         <v>245</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
     </row>
     <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8" t="s">
+      <c r="A24" s="6"/>
+      <c r="B24" s="7" t="s">
         <v>507</v>
       </c>
-      <c r="C24" s="7"/>
+      <c r="C24" s="6"/>
     </row>
     <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="8" t="s">
+      <c r="A25" s="6"/>
+      <c r="B25" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="C25" s="7"/>
+      <c r="C25" s="6"/>
     </row>
     <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
     </row>
     <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="6" t="s">
         <v>804</v>
       </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
     </row>
     <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="6" t="s">
         <v>803</v>
       </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
     </row>
     <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="6" t="s">
         <v>530</v>
       </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
     </row>
     <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="6" t="s">
         <v>802</v>
       </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
     </row>
     <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="6" t="s">
         <v>801</v>
       </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
     </row>
     <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="6" t="s">
         <v>800</v>
       </c>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
     </row>
     <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="23" t="s">
+      <c r="A34" s="19" t="s">
         <v>471</v>
       </c>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
     </row>
     <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="23" t="s">
+      <c r="A35" s="19" t="s">
         <v>799</v>
       </c>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
-      <c r="B36" s="8" t="s">
+      <c r="A36" s="6"/>
+      <c r="B36" s="7" t="s">
         <v>798</v>
       </c>
-      <c r="C36" s="7"/>
+      <c r="C36" s="6"/>
     </row>
     <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="7"/>
-      <c r="B37" s="8" t="s">
+      <c r="A37" s="6"/>
+      <c r="B37" s="7" t="s">
         <v>797</v>
       </c>
-      <c r="C37" s="7"/>
+      <c r="C37" s="6"/>
     </row>
     <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="23" t="s">
+      <c r="A38" s="19" t="s">
         <v>796</v>
       </c>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="23" t="s">
+      <c r="A39" s="19" t="s">
         <v>795</v>
       </c>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
     </row>
     <row r="40" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="23" t="s">
+      <c r="A40" s="19" t="s">
         <v>794</v>
       </c>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
     </row>
     <row r="41" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="7"/>
-      <c r="B41" s="8" t="s">
+      <c r="A41" s="6"/>
+      <c r="B41" s="7" t="s">
         <v>793</v>
       </c>
-      <c r="C41" s="7"/>
+      <c r="C41" s="6"/>
     </row>
     <row r="42" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="7"/>
-      <c r="B42" s="8" t="s">
+      <c r="A42" s="6"/>
+      <c r="B42" s="7" t="s">
         <v>792</v>
       </c>
-      <c r="C42" s="7"/>
+      <c r="C42" s="6"/>
     </row>
     <row r="43" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="7"/>
-      <c r="B43" s="8" t="s">
+      <c r="A43" s="6"/>
+      <c r="B43" s="7" t="s">
         <v>791</v>
       </c>
-      <c r="C43" s="7"/>
+      <c r="C43" s="6"/>
     </row>
     <row r="44" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="7"/>
-      <c r="B44" s="8" t="s">
+      <c r="A44" s="6"/>
+      <c r="B44" s="7" t="s">
         <v>790</v>
       </c>
-      <c r="C44" s="7"/>
+      <c r="C44" s="6"/>
     </row>
     <row r="45" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="7"/>
-      <c r="B45" s="8" t="s">
+      <c r="A45" s="6"/>
+      <c r="B45" s="7" t="s">
         <v>789</v>
       </c>
-      <c r="C45" s="7"/>
+      <c r="C45" s="6"/>
     </row>
     <row r="46" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="23" t="s">
+      <c r="A46" s="19" t="s">
         <v>515</v>
       </c>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
     </row>
     <row r="47" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="23" t="s">
+      <c r="A47" s="19" t="s">
         <v>788</v>
       </c>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
     </row>
     <row r="48" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="7"/>
-      <c r="B48" s="8" t="s">
+      <c r="A48" s="6"/>
+      <c r="B48" s="7" t="s">
         <v>787</v>
       </c>
-      <c r="C48" s="7"/>
+      <c r="C48" s="6"/>
     </row>
     <row r="49" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="7"/>
-      <c r="B49" s="8" t="s">
+      <c r="A49" s="6"/>
+      <c r="B49" s="7" t="s">
         <v>786</v>
       </c>
-      <c r="C49" s="7"/>
+      <c r="C49" s="6"/>
     </row>
     <row r="50" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="7"/>
-      <c r="B50" s="8" t="s">
+      <c r="A50" s="6"/>
+      <c r="B50" s="7" t="s">
         <v>785</v>
       </c>
-      <c r="C50" s="7"/>
+      <c r="C50" s="6"/>
     </row>
     <row r="51" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="7"/>
-      <c r="B51" s="8" t="s">
+      <c r="A51" s="6"/>
+      <c r="B51" s="7" t="s">
         <v>784</v>
       </c>
-      <c r="C51" s="7"/>
+      <c r="C51" s="6"/>
     </row>
     <row r="52" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="7"/>
-      <c r="B52" s="8" t="s">
+      <c r="A52" s="6"/>
+      <c r="B52" s="7" t="s">
         <v>783</v>
       </c>
-      <c r="C52" s="7"/>
+      <c r="C52" s="6"/>
     </row>
     <row r="53" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="7"/>
-      <c r="B53" s="8" t="s">
+      <c r="A53" s="6"/>
+      <c r="B53" s="7" t="s">
         <v>782</v>
       </c>
-      <c r="C53" s="7"/>
+      <c r="C53" s="6"/>
     </row>
     <row r="54" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="23" t="s">
+      <c r="A54" s="19" t="s">
         <v>514</v>
       </c>
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
     </row>
     <row r="55" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="23" t="s">
+      <c r="A55" s="19" t="s">
         <v>781</v>
       </c>
-      <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
     </row>
     <row r="56" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="23" t="s">
+      <c r="A56" s="19" t="s">
         <v>780</v>
       </c>
-      <c r="B56" s="7"/>
-      <c r="C56" s="7"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
     </row>
     <row r="57" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="7"/>
-      <c r="B57" s="8" t="s">
+      <c r="A57" s="6"/>
+      <c r="B57" s="7" t="s">
         <v>779</v>
       </c>
-      <c r="C57" s="7"/>
+      <c r="C57" s="6"/>
     </row>
     <row r="58" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="7"/>
-      <c r="B58" s="8" t="s">
+      <c r="A58" s="6"/>
+      <c r="B58" s="7" t="s">
         <v>564</v>
       </c>
-      <c r="C58" s="7"/>
+      <c r="C58" s="6"/>
     </row>
     <row r="59" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="7"/>
-      <c r="B59" s="8" t="s">
+      <c r="A59" s="6"/>
+      <c r="B59" s="7" t="s">
         <v>778</v>
       </c>
-      <c r="C59" s="7"/>
+      <c r="C59" s="6"/>
     </row>
     <row r="60" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="7"/>
-      <c r="B60" s="8" t="s">
+      <c r="A60" s="6"/>
+      <c r="B60" s="7" t="s">
         <v>529</v>
       </c>
-      <c r="C60" s="7"/>
+      <c r="C60" s="6"/>
     </row>
     <row r="61" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="14" t="s">
+      <c r="A61" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="B61" s="7"/>
-      <c r="C61" s="7"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
     </row>
     <row r="62" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="14" t="s">
+      <c r="A62" s="12" t="s">
         <v>777</v>
       </c>
-      <c r="B62" s="7"/>
-      <c r="C62" s="7"/>
+      <c r="B62" s="6"/>
+      <c r="C62" s="6"/>
     </row>
     <row r="63" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="23" t="s">
+      <c r="A63" s="19" t="s">
         <v>300</v>
       </c>
-      <c r="B63" s="7"/>
-      <c r="C63" s="7"/>
+      <c r="B63" s="6"/>
+      <c r="C63" s="6"/>
     </row>
     <row r="64" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="23" t="s">
+      <c r="A64" s="19" t="s">
         <v>483</v>
       </c>
-      <c r="B64" s="7"/>
-      <c r="C64" s="7"/>
+      <c r="B64" s="6"/>
+      <c r="C64" s="6"/>
     </row>
     <row r="65" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="7"/>
-      <c r="B65" s="8" t="s">
+      <c r="A65" s="6"/>
+      <c r="B65" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="C65" s="7"/>
+      <c r="C65" s="6"/>
     </row>
     <row r="66" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="7"/>
-      <c r="B66" s="8" t="s">
+      <c r="A66" s="6"/>
+      <c r="B66" s="7" t="s">
         <v>471</v>
       </c>
-      <c r="C66" s="7"/>
+      <c r="C66" s="6"/>
     </row>
     <row r="67" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="23" t="s">
+      <c r="A67" s="19" t="s">
         <v>506</v>
       </c>
-      <c r="B67" s="7"/>
-      <c r="C67" s="7"/>
+      <c r="B67" s="6"/>
+      <c r="C67" s="6"/>
     </row>
     <row r="68" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="23" t="s">
+      <c r="A68" s="19" t="s">
         <v>776</v>
       </c>
-      <c r="B68" s="7"/>
-      <c r="C68" s="7"/>
+      <c r="B68" s="6"/>
+      <c r="C68" s="6"/>
     </row>
     <row r="69" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="7"/>
-      <c r="B69" s="8" t="s">
+      <c r="A69" s="6"/>
+      <c r="B69" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C69" s="7"/>
+      <c r="C69" s="6"/>
     </row>
     <row r="70" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="7"/>
-      <c r="B70" s="8" t="s">
+      <c r="A70" s="6"/>
+      <c r="B70" s="7" t="s">
         <v>714</v>
       </c>
-      <c r="C70" s="7"/>
+      <c r="C70" s="6"/>
     </row>
     <row r="71" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="7"/>
-      <c r="B71" s="8" t="s">
+      <c r="A71" s="6"/>
+      <c r="B71" s="7" t="s">
         <v>775</v>
       </c>
-      <c r="C71" s="7"/>
+      <c r="C71" s="6"/>
     </row>
     <row r="72" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="23" t="s">
+      <c r="A72" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="B72" s="7"/>
-      <c r="C72" s="7"/>
+      <c r="B72" s="6"/>
+      <c r="C72" s="6"/>
     </row>
     <row r="73" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="23" t="s">
+      <c r="A73" s="19" t="s">
         <v>774</v>
       </c>
-      <c r="B73" s="7"/>
-      <c r="C73" s="7"/>
+      <c r="B73" s="6"/>
+      <c r="C73" s="6"/>
     </row>
     <row r="74" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="7"/>
-      <c r="B74" s="8" t="s">
+      <c r="A74" s="6"/>
+      <c r="B74" s="7" t="s">
         <v>773</v>
       </c>
-      <c r="C74" s="7"/>
+      <c r="C74" s="6"/>
     </row>
     <row r="75" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="7"/>
-      <c r="B75" s="8" t="s">
+      <c r="A75" s="6"/>
+      <c r="B75" s="7" t="s">
         <v>772</v>
       </c>
-      <c r="C75" s="7"/>
+      <c r="C75" s="6"/>
     </row>
     <row r="76" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="23" t="s">
+      <c r="A76" s="19" t="s">
         <v>505</v>
       </c>
-      <c r="B76" s="7"/>
-      <c r="C76" s="7"/>
+      <c r="B76" s="6"/>
+      <c r="C76" s="6"/>
     </row>
     <row r="77" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="23" t="s">
+      <c r="A77" s="19" t="s">
         <v>771</v>
       </c>
-      <c r="B77" s="7"/>
-      <c r="C77" s="7"/>
+      <c r="B77" s="6"/>
+      <c r="C77" s="6"/>
     </row>
     <row r="78" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="7"/>
-      <c r="B78" s="8" t="s">
+      <c r="A78" s="6"/>
+      <c r="B78" s="7" t="s">
         <v>770</v>
       </c>
-      <c r="C78" s="7"/>
+      <c r="C78" s="6"/>
     </row>
     <row r="79" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="23" t="s">
+      <c r="A79" s="19" t="s">
         <v>503</v>
       </c>
-      <c r="B79" s="7"/>
-      <c r="C79" s="7"/>
+      <c r="B79" s="6"/>
+      <c r="C79" s="6"/>
     </row>
     <row r="80" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="23" t="s">
+      <c r="A80" s="19" t="s">
         <v>769</v>
       </c>
-      <c r="B80" s="7"/>
-      <c r="C80" s="7"/>
+      <c r="B80" s="6"/>
+      <c r="C80" s="6"/>
     </row>
     <row r="81" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="7"/>
-      <c r="B81" s="8" t="s">
+      <c r="A81" s="6"/>
+      <c r="B81" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="C81" s="7"/>
+      <c r="C81" s="6"/>
     </row>
     <row r="82" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="7"/>
-      <c r="B82" s="8" t="s">
+      <c r="A82" s="6"/>
+      <c r="B82" s="7" t="s">
         <v>582</v>
       </c>
-      <c r="C82" s="7"/>
+      <c r="C82" s="6"/>
     </row>
     <row r="83" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="7"/>
-      <c r="B83" s="8" t="s">
+      <c r="A83" s="6"/>
+      <c r="B83" s="7" t="s">
         <v>768</v>
       </c>
-      <c r="C83" s="7"/>
+      <c r="C83" s="6"/>
     </row>
     <row r="84" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="7"/>
-      <c r="B84" s="8" t="s">
+      <c r="A84" s="6"/>
+      <c r="B84" s="7" t="s">
         <v>744</v>
       </c>
-      <c r="C84" s="7"/>
+      <c r="C84" s="6"/>
     </row>
     <row r="85" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="7"/>
-      <c r="B85" s="8" t="s">
+      <c r="A85" s="6"/>
+      <c r="B85" s="7" t="s">
         <v>767</v>
       </c>
-      <c r="C85" s="7"/>
+      <c r="C85" s="6"/>
     </row>
     <row r="86" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="7"/>
-      <c r="B86" s="8" t="s">
+      <c r="A86" s="6"/>
+      <c r="B86" s="7" t="s">
         <v>766</v>
       </c>
-      <c r="C86" s="7"/>
+      <c r="C86" s="6"/>
     </row>
     <row r="87" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="23" t="s">
+      <c r="A87" s="19" t="s">
         <v>765</v>
       </c>
-      <c r="B87" s="7"/>
-      <c r="C87" s="7"/>
+      <c r="B87" s="6"/>
+      <c r="C87" s="6"/>
     </row>
     <row r="88" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="23" t="s">
+      <c r="A88" s="19" t="s">
         <v>764</v>
       </c>
-      <c r="B88" s="7"/>
-      <c r="C88" s="7"/>
+      <c r="B88" s="6"/>
+      <c r="C88" s="6"/>
     </row>
     <row r="89" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="7"/>
-      <c r="B89" s="8" t="s">
+      <c r="A89" s="6"/>
+      <c r="B89" s="7" t="s">
         <v>681</v>
       </c>
-      <c r="C89" s="7"/>
+      <c r="C89" s="6"/>
     </row>
     <row r="90" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="7"/>
-      <c r="B90" s="8" t="s">
+      <c r="A90" s="6"/>
+      <c r="B90" s="7" t="s">
         <v>763</v>
       </c>
-      <c r="C90" s="7"/>
+      <c r="C90" s="6"/>
     </row>
     <row r="91" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="7"/>
-      <c r="B91" s="8" t="s">
+      <c r="A91" s="6"/>
+      <c r="B91" s="7" t="s">
         <v>502</v>
       </c>
-      <c r="C91" s="7"/>
+      <c r="C91" s="6"/>
     </row>
     <row r="92" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="23" t="s">
+      <c r="A92" s="19" t="s">
         <v>762</v>
       </c>
-      <c r="B92" s="7"/>
-      <c r="C92" s="7"/>
+      <c r="B92" s="6"/>
+      <c r="C92" s="6"/>
     </row>
     <row r="93" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="23" t="s">
+      <c r="A93" s="19" t="s">
         <v>761</v>
       </c>
-      <c r="B93" s="7"/>
-      <c r="C93" s="7"/>
+      <c r="B93" s="6"/>
+      <c r="C93" s="6"/>
     </row>
     <row r="94" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="23" t="s">
+      <c r="A94" s="19" t="s">
         <v>501</v>
       </c>
-      <c r="B94" s="7"/>
-      <c r="C94" s="7"/>
+      <c r="B94" s="6"/>
+      <c r="C94" s="6"/>
     </row>
     <row r="95" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="23" t="s">
+      <c r="A95" s="19" t="s">
         <v>553</v>
       </c>
-      <c r="B95" s="7"/>
-      <c r="C95" s="7"/>
+      <c r="B95" s="6"/>
+      <c r="C95" s="6"/>
     </row>
     <row r="96" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="7"/>
-      <c r="B96" s="8" t="s">
+      <c r="A96" s="6"/>
+      <c r="B96" s="7" t="s">
         <v>600</v>
       </c>
-      <c r="C96" s="7"/>
+      <c r="C96" s="6"/>
     </row>
     <row r="97" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="7"/>
-      <c r="B97" s="8" t="s">
+      <c r="A97" s="6"/>
+      <c r="B97" s="7" t="s">
         <v>760</v>
       </c>
-      <c r="C97" s="7"/>
+      <c r="C97" s="6"/>
     </row>
     <row r="98" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A98" s="23" t="s">
+      <c r="A98" s="19" t="s">
         <v>500</v>
       </c>
-      <c r="B98" s="7"/>
-      <c r="C98" s="7"/>
+      <c r="B98" s="6"/>
+      <c r="C98" s="6"/>
     </row>
     <row r="99" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A99" s="23" t="s">
+      <c r="A99" s="19" t="s">
         <v>759</v>
       </c>
-      <c r="B99" s="7"/>
-      <c r="C99" s="7"/>
+      <c r="B99" s="6"/>
+      <c r="C99" s="6"/>
     </row>
     <row r="100" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A100" s="7"/>
-      <c r="B100" s="8" t="s">
+      <c r="A100" s="6"/>
+      <c r="B100" s="7" t="s">
         <v>533</v>
       </c>
-      <c r="C100" s="7"/>
+      <c r="C100" s="6"/>
     </row>
     <row r="101" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A101" s="7"/>
-      <c r="B101" s="8" t="s">
+      <c r="A101" s="6"/>
+      <c r="B101" s="7" t="s">
         <v>758</v>
       </c>
-      <c r="C101" s="7"/>
+      <c r="C101" s="6"/>
     </row>
     <row r="102" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="23" t="s">
+      <c r="A102" s="19" t="s">
         <v>757</v>
       </c>
-      <c r="B102" s="7"/>
-      <c r="C102" s="7"/>
+      <c r="B102" s="6"/>
+      <c r="C102" s="6"/>
     </row>
     <row r="103" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A103" s="23" t="s">
+      <c r="A103" s="19" t="s">
         <v>490</v>
       </c>
-      <c r="B103" s="7"/>
-      <c r="C103" s="7"/>
+      <c r="B103" s="6"/>
+      <c r="C103" s="6"/>
     </row>
     <row r="104" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A104" s="23" t="s">
+      <c r="A104" s="19" t="s">
         <v>756</v>
       </c>
-      <c r="B104" s="7"/>
-      <c r="C104" s="7"/>
+      <c r="B104" s="6"/>
+      <c r="C104" s="6"/>
     </row>
     <row r="105" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A105" s="7"/>
-      <c r="B105" s="8" t="s">
+      <c r="A105" s="6"/>
+      <c r="B105" s="7" t="s">
         <v>755</v>
       </c>
-      <c r="C105" s="7"/>
+      <c r="C105" s="6"/>
     </row>
     <row r="106" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A106" s="7"/>
-      <c r="B106" s="8" t="s">
+      <c r="A106" s="6"/>
+      <c r="B106" s="7" t="s">
         <v>754</v>
       </c>
-      <c r="C106" s="7"/>
+      <c r="C106" s="6"/>
     </row>
     <row r="107" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A107" s="7"/>
-      <c r="B107" s="8" t="s">
+      <c r="A107" s="6"/>
+      <c r="B107" s="7" t="s">
         <v>753</v>
       </c>
-      <c r="C107" s="7"/>
+      <c r="C107" s="6"/>
     </row>
     <row r="108" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A108" s="7"/>
-      <c r="B108" s="8" t="s">
+      <c r="A108" s="6"/>
+      <c r="B108" s="7" t="s">
         <v>752</v>
       </c>
-      <c r="C108" s="7"/>
+      <c r="C108" s="6"/>
     </row>
     <row r="109" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A109" s="23" t="s">
+      <c r="A109" s="19" t="s">
         <v>489</v>
       </c>
-      <c r="B109" s="7"/>
-      <c r="C109" s="7"/>
+      <c r="B109" s="6"/>
+      <c r="C109" s="6"/>
     </row>
     <row r="110" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A110" s="23" t="s">
+      <c r="A110" s="19" t="s">
         <v>444</v>
       </c>
-      <c r="B110" s="7"/>
-      <c r="C110" s="7"/>
+      <c r="B110" s="6"/>
+      <c r="C110" s="6"/>
     </row>
     <row r="111" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A111" s="7"/>
-      <c r="B111" s="8" t="s">
+      <c r="A111" s="6"/>
+      <c r="B111" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C111" s="7"/>
+      <c r="C111" s="6"/>
     </row>
     <row r="112" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A112" s="7"/>
-      <c r="B112" s="8" t="s">
+      <c r="A112" s="6"/>
+      <c r="B112" s="7" t="s">
         <v>751</v>
       </c>
-      <c r="C112" s="7"/>
+      <c r="C112" s="6"/>
     </row>
     <row r="113" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A113" s="7"/>
-      <c r="B113" s="8" t="s">
+      <c r="A113" s="6"/>
+      <c r="B113" s="7" t="s">
         <v>750</v>
       </c>
-      <c r="C113" s="7"/>
+      <c r="C113" s="6"/>
     </row>
     <row r="114" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A114" s="23" t="s">
+      <c r="A114" s="19" t="s">
         <v>488</v>
       </c>
-      <c r="B114" s="7"/>
-      <c r="C114" s="7"/>
+      <c r="B114" s="6"/>
+      <c r="C114" s="6"/>
     </row>
     <row r="115" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A115" s="23" t="s">
+      <c r="A115" s="19" t="s">
         <v>749</v>
       </c>
-      <c r="B115" s="7"/>
-      <c r="C115" s="7"/>
+      <c r="B115" s="6"/>
+      <c r="C115" s="6"/>
     </row>
     <row r="116" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A116" s="7"/>
-      <c r="B116" s="8" t="s">
+      <c r="A116" s="6"/>
+      <c r="B116" s="7" t="s">
         <v>748</v>
       </c>
-      <c r="C116" s="7"/>
+      <c r="C116" s="6"/>
     </row>
     <row r="117" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A117" s="7"/>
-      <c r="B117" s="8" t="s">
+      <c r="A117" s="6"/>
+      <c r="B117" s="7" t="s">
         <v>747</v>
       </c>
-      <c r="C117" s="7"/>
+      <c r="C117" s="6"/>
     </row>
     <row r="118" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A118" s="23" t="s">
+      <c r="A118" s="19" t="s">
         <v>487</v>
       </c>
-      <c r="B118" s="7"/>
-      <c r="C118" s="7"/>
+      <c r="B118" s="6"/>
+      <c r="C118" s="6"/>
     </row>
     <row r="119" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A119" s="23" t="s">
+      <c r="A119" s="19" t="s">
         <v>746</v>
       </c>
-      <c r="B119" s="7"/>
-      <c r="C119" s="7"/>
+      <c r="B119" s="6"/>
+      <c r="C119" s="6"/>
     </row>
     <row r="120" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A120" s="7"/>
-      <c r="B120" s="8" t="s">
+      <c r="A120" s="6"/>
+      <c r="B120" s="7" t="s">
         <v>745</v>
       </c>
-      <c r="C120" s="7"/>
+      <c r="C120" s="6"/>
     </row>
     <row r="121" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A121" s="7"/>
-      <c r="B121" s="8" t="s">
+      <c r="A121" s="6"/>
+      <c r="B121" s="7" t="s">
         <v>744</v>
       </c>
-      <c r="C121" s="7"/>
+      <c r="C121" s="6"/>
     </row>
     <row r="122" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A122" s="7"/>
-      <c r="B122" s="8" t="s">
+      <c r="A122" s="6"/>
+      <c r="B122" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="C122" s="7"/>
+      <c r="C122" s="6"/>
     </row>
     <row r="123" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A123" s="23" t="s">
+      <c r="A123" s="19" t="s">
         <v>486</v>
       </c>
-      <c r="B123" s="7"/>
-      <c r="C123" s="7"/>
+      <c r="B123" s="6"/>
+      <c r="C123" s="6"/>
     </row>
     <row r="124" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A124" s="23" t="s">
+      <c r="A124" s="19" t="s">
         <v>743</v>
       </c>
-      <c r="B124" s="7"/>
-      <c r="C124" s="7"/>
+      <c r="B124" s="6"/>
+      <c r="C124" s="6"/>
     </row>
     <row r="125" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A125" s="7"/>
-      <c r="B125" s="8" t="s">
+      <c r="A125" s="6"/>
+      <c r="B125" s="7" t="s">
         <v>742</v>
       </c>
-      <c r="C125" s="7"/>
+      <c r="C125" s="6"/>
     </row>
     <row r="126" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A126" s="7"/>
-      <c r="B126" s="8" t="s">
+      <c r="A126" s="6"/>
+      <c r="B126" s="7" t="s">
         <v>741</v>
       </c>
-      <c r="C126" s="7"/>
+      <c r="C126" s="6"/>
     </row>
     <row r="127" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A127" s="23" t="s">
+      <c r="A127" s="19" t="s">
         <v>485</v>
       </c>
-      <c r="B127" s="7"/>
-      <c r="C127" s="7"/>
+      <c r="B127" s="6"/>
+      <c r="C127" s="6"/>
     </row>
     <row r="128" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A128" s="23" t="s">
+      <c r="A128" s="19" t="s">
         <v>740</v>
       </c>
-      <c r="B128" s="7"/>
-      <c r="C128" s="7"/>
+      <c r="B128" s="6"/>
+      <c r="C128" s="6"/>
     </row>
     <row r="129" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A129" s="7"/>
-      <c r="B129" s="8" t="s">
+      <c r="A129" s="6"/>
+      <c r="B129" s="7" t="s">
         <v>739</v>
       </c>
-      <c r="C129" s="7"/>
+      <c r="C129" s="6"/>
     </row>
     <row r="130" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A130" s="7"/>
-      <c r="B130" s="8" t="s">
+      <c r="A130" s="6"/>
+      <c r="B130" s="7" t="s">
         <v>738</v>
       </c>
-      <c r="C130" s="7"/>
+      <c r="C130" s="6"/>
     </row>
     <row r="131" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A131" s="23" t="s">
+      <c r="A131" s="19" t="s">
         <v>479</v>
       </c>
-      <c r="B131" s="7"/>
-      <c r="C131" s="7"/>
+      <c r="B131" s="6"/>
+      <c r="C131" s="6"/>
     </row>
     <row r="132" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A132" s="23" t="s">
+      <c r="A132" s="19" t="s">
         <v>737</v>
       </c>
-      <c r="B132" s="7"/>
-      <c r="C132" s="7"/>
+      <c r="B132" s="6"/>
+      <c r="C132" s="6"/>
     </row>
     <row r="133" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A133" s="7"/>
-      <c r="B133" s="8" t="s">
+      <c r="A133" s="6"/>
+      <c r="B133" s="7" t="s">
         <v>736</v>
       </c>
-      <c r="C133" s="7"/>
+      <c r="C133" s="6"/>
     </row>
     <row r="134" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A134" s="7"/>
-      <c r="B134" s="8" t="s">
+      <c r="A134" s="6"/>
+      <c r="B134" s="7" t="s">
         <v>735</v>
       </c>
-      <c r="C134" s="7"/>
+      <c r="C134" s="6"/>
     </row>
     <row r="135" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A135" s="23" t="s">
+      <c r="A135" s="19" t="s">
         <v>734</v>
       </c>
-      <c r="B135" s="7"/>
-      <c r="C135" s="7"/>
+      <c r="B135" s="6"/>
+      <c r="C135" s="6"/>
     </row>
     <row r="136" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A136" s="23" t="s">
+      <c r="A136" s="19" t="s">
         <v>444</v>
       </c>
-      <c r="B136" s="7"/>
-      <c r="C136" s="7"/>
+      <c r="B136" s="6"/>
+      <c r="C136" s="6"/>
     </row>
     <row r="137" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A137" s="7"/>
-      <c r="B137" s="8" t="s">
+      <c r="A137" s="6"/>
+      <c r="B137" s="7" t="s">
         <v>733</v>
       </c>
-      <c r="C137" s="7"/>
+      <c r="C137" s="6"/>
     </row>
     <row r="138" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A138" s="7"/>
-      <c r="B138" s="8" t="s">
+      <c r="A138" s="6"/>
+      <c r="B138" s="7" t="s">
         <v>732</v>
       </c>
-      <c r="C138" s="7"/>
+      <c r="C138" s="6"/>
     </row>
     <row r="139" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A139" s="23" t="s">
+      <c r="A139" s="19" t="s">
         <v>731</v>
       </c>
-      <c r="B139" s="7"/>
-      <c r="C139" s="7"/>
+      <c r="B139" s="6"/>
+      <c r="C139" s="6"/>
     </row>
     <row r="140" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A140" s="23" t="s">
+      <c r="A140" s="19" t="s">
         <v>730</v>
       </c>
-      <c r="B140" s="7"/>
-      <c r="C140" s="7"/>
+      <c r="B140" s="6"/>
+      <c r="C140" s="6"/>
     </row>
     <row r="141" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A141" s="7"/>
-      <c r="B141" s="8" t="s">
+      <c r="A141" s="6"/>
+      <c r="B141" s="7" t="s">
         <v>729</v>
       </c>
-      <c r="C141" s="7"/>
+      <c r="C141" s="6"/>
     </row>
     <row r="142" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A142" s="7"/>
-      <c r="B142" s="8" t="s">
+      <c r="A142" s="6"/>
+      <c r="B142" s="7" t="s">
         <v>728</v>
       </c>
-      <c r="C142" s="7"/>
+      <c r="C142" s="6"/>
     </row>
     <row r="143" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A143" s="23" t="s">
+      <c r="A143" s="19" t="s">
         <v>476</v>
       </c>
-      <c r="B143" s="7"/>
-      <c r="C143" s="7"/>
+      <c r="B143" s="6"/>
+      <c r="C143" s="6"/>
     </row>
     <row r="144" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A144" s="23" t="s">
+      <c r="A144" s="19" t="s">
         <v>727</v>
       </c>
-      <c r="B144" s="7"/>
-      <c r="C144" s="7"/>
+      <c r="B144" s="6"/>
+      <c r="C144" s="6"/>
     </row>
     <row r="145" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A145" s="7"/>
-      <c r="B145" s="8" t="s">
+      <c r="A145" s="6"/>
+      <c r="B145" s="7" t="s">
         <v>726</v>
       </c>
-      <c r="C145" s="7"/>
+      <c r="C145" s="6"/>
     </row>
     <row r="146" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A146" s="7"/>
-      <c r="B146" s="8" t="s">
+      <c r="A146" s="6"/>
+      <c r="B146" s="7" t="s">
         <v>725</v>
       </c>
-      <c r="C146" s="7"/>
+      <c r="C146" s="6"/>
     </row>
     <row r="147" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A147" s="7" t="s">
+      <c r="A147" s="6" t="s">
         <v>473</v>
       </c>
-      <c r="B147" s="7"/>
-      <c r="C147" s="7"/>
+      <c r="B147" s="6"/>
+      <c r="C147" s="6"/>
     </row>
     <row r="148" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A148" s="7" t="s">
+      <c r="A148" s="6" t="s">
         <v>724</v>
       </c>
-      <c r="B148" s="7"/>
-      <c r="C148" s="7"/>
+      <c r="B148" s="6"/>
+      <c r="C148" s="6"/>
     </row>
     <row r="149" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A149" s="7" t="s">
+      <c r="A149" s="6" t="s">
         <v>472</v>
       </c>
-      <c r="B149" s="7"/>
-      <c r="C149" s="7"/>
+      <c r="B149" s="6"/>
+      <c r="C149" s="6"/>
     </row>
     <row r="150" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A150" s="7" t="s">
+      <c r="A150" s="6" t="s">
         <v>471</v>
       </c>
-      <c r="B150" s="7"/>
-      <c r="C150" s="7"/>
+      <c r="B150" s="6"/>
+      <c r="C150" s="6"/>
     </row>
     <row r="151" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A151" s="7" t="s">
+      <c r="A151" s="6" t="s">
         <v>723</v>
       </c>
-      <c r="B151" s="7"/>
-      <c r="C151" s="7"/>
+      <c r="B151" s="6"/>
+      <c r="C151" s="6"/>
     </row>
     <row r="152" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A152" s="7" t="s">
+      <c r="A152" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="B152" s="7"/>
-      <c r="C152" s="7"/>
+      <c r="B152" s="6"/>
+      <c r="C152" s="6"/>
     </row>
     <row r="153" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A153" s="7" t="s">
+      <c r="A153" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B153" s="7"/>
-      <c r="C153" s="7"/>
+      <c r="B153" s="6"/>
+      <c r="C153" s="6"/>
     </row>
     <row r="154" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A154" s="7" t="s">
+      <c r="A154" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="B154" s="7"/>
-      <c r="C154" s="7"/>
+      <c r="B154" s="6"/>
+      <c r="C154" s="6"/>
     </row>
     <row r="155" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A155" s="7" t="s">
+      <c r="A155" s="6" t="s">
         <v>722</v>
       </c>
-      <c r="B155" s="7"/>
-      <c r="C155" s="7"/>
+      <c r="B155" s="6"/>
+      <c r="C155" s="6"/>
     </row>
     <row r="156" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A156" s="23" t="s">
+      <c r="A156" s="19" t="s">
         <v>468</v>
       </c>
-      <c r="B156" s="7"/>
-      <c r="C156" s="7"/>
+      <c r="B156" s="6"/>
+      <c r="C156" s="6"/>
     </row>
     <row r="157" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A157" s="23" t="s">
+      <c r="A157" s="19" t="s">
         <v>721</v>
       </c>
-      <c r="B157" s="7"/>
-      <c r="C157" s="7"/>
+      <c r="B157" s="6"/>
+      <c r="C157" s="6"/>
     </row>
     <row r="158" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A158" s="7"/>
-      <c r="B158" s="8" t="s">
+      <c r="A158" s="6"/>
+      <c r="B158" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="C158" s="7"/>
+      <c r="C158" s="6"/>
     </row>
     <row r="159" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A159" s="7"/>
-      <c r="B159" s="8" t="s">
+      <c r="A159" s="6"/>
+      <c r="B159" s="7" t="s">
         <v>720</v>
       </c>
-      <c r="C159" s="7"/>
+      <c r="C159" s="6"/>
     </row>
     <row r="160" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A160" s="7"/>
-      <c r="B160" s="8" t="s">
+      <c r="A160" s="6"/>
+      <c r="B160" s="7" t="s">
         <v>507</v>
       </c>
-      <c r="C160" s="7"/>
+      <c r="C160" s="6"/>
     </row>
     <row r="161" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A161" s="7"/>
-      <c r="B161" s="8" t="s">
+      <c r="A161" s="6"/>
+      <c r="B161" s="7" t="s">
         <v>719</v>
       </c>
-      <c r="C161" s="7"/>
+      <c r="C161" s="6"/>
     </row>
     <row r="162" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A162" s="23" t="s">
+      <c r="A162" s="19" t="s">
         <v>467</v>
       </c>
-      <c r="B162" s="7"/>
-      <c r="C162" s="7"/>
+      <c r="B162" s="6"/>
+      <c r="C162" s="6"/>
     </row>
     <row r="163" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A163" s="23" t="s">
+      <c r="A163" s="19" t="s">
         <v>718</v>
       </c>
-      <c r="B163" s="7"/>
-      <c r="C163" s="7"/>
+      <c r="B163" s="6"/>
+      <c r="C163" s="6"/>
     </row>
     <row r="164" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A164" s="7"/>
-      <c r="B164" s="8" t="s">
+      <c r="A164" s="6"/>
+      <c r="B164" s="7" t="s">
         <v>717</v>
       </c>
-      <c r="C164" s="7"/>
+      <c r="C164" s="6"/>
     </row>
     <row r="165" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A165" s="7"/>
-      <c r="B165" s="8" t="s">
+      <c r="A165" s="6"/>
+      <c r="B165" s="7" t="s">
         <v>716</v>
       </c>
-      <c r="C165" s="7"/>
+      <c r="C165" s="6"/>
     </row>
     <row r="166" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A166" s="7"/>
-      <c r="B166" s="8" t="s">
+      <c r="A166" s="6"/>
+      <c r="B166" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="C166" s="7"/>
+      <c r="C166" s="6"/>
     </row>
     <row r="167" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A167" s="7"/>
-      <c r="B167" s="8" t="s">
+      <c r="A167" s="6"/>
+      <c r="B167" s="7" t="s">
         <v>587</v>
       </c>
-      <c r="C167" s="7"/>
+      <c r="C167" s="6"/>
     </row>
     <row r="168" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A168" s="7"/>
-      <c r="B168" s="8" t="s">
+      <c r="A168" s="6"/>
+      <c r="B168" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="C168" s="7"/>
+      <c r="C168" s="6"/>
     </row>
     <row r="169" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A169" s="23" t="s">
+      <c r="A169" s="19" t="s">
         <v>466</v>
       </c>
-      <c r="B169" s="7"/>
-      <c r="C169" s="7"/>
+      <c r="B169" s="6"/>
+      <c r="C169" s="6"/>
     </row>
     <row r="170" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A170" s="23" t="s">
+      <c r="A170" s="19" t="s">
         <v>715</v>
       </c>
-      <c r="B170" s="7"/>
-      <c r="C170" s="7"/>
+      <c r="B170" s="6"/>
+      <c r="C170" s="6"/>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A172" s="22" t="s">
+      <c r="A172" s="18" t="s">
         <v>714</v>
       </c>
-      <c r="B172" s="22"/>
+      <c r="B172" s="18"/>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A173" s="22" t="s">
+      <c r="A173" s="18" t="s">
         <v>713</v>
       </c>
-      <c r="B173" s="22"/>
+      <c r="B173" s="18"/>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A174" s="22"/>
-      <c r="B174" s="22"/>
+      <c r="A174" s="18"/>
+      <c r="B174" s="18"/>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A175" s="22" t="s">
+      <c r="A175" s="18" t="s">
         <v>465</v>
       </c>
-      <c r="B175" s="22"/>
+      <c r="B175" s="18"/>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A176" s="22" t="s">
+      <c r="A176" s="18" t="s">
         <v>712</v>
       </c>
-      <c r="B176" s="22"/>
+      <c r="B176" s="18"/>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177" s="22"/>
-      <c r="B177" s="22"/>
+      <c r="A177" s="18"/>
+      <c r="B177" s="18"/>
     </row>
     <row r="178" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A178" s="23" t="s">
+      <c r="A178" s="19" t="s">
         <v>464</v>
       </c>
-      <c r="B178" s="22"/>
+      <c r="B178" s="18"/>
     </row>
     <row r="179" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A179" s="23" t="s">
+      <c r="A179" s="19" t="s">
         <v>711</v>
       </c>
-      <c r="B179" s="22"/>
+      <c r="B179" s="18"/>
     </row>
     <row r="180" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A180" s="22"/>
-      <c r="B180" s="8" t="s">
+      <c r="A180" s="18"/>
+      <c r="B180" s="7" t="s">
         <v>710</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A181" s="22"/>
-      <c r="B181" s="8" t="s">
+      <c r="A181" s="18"/>
+      <c r="B181" s="7" t="s">
         <v>709</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A182" s="23" t="s">
+      <c r="A182" s="19" t="s">
         <v>708</v>
       </c>
-      <c r="B182" s="22"/>
+      <c r="B182" s="18"/>
     </row>
     <row r="183" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A183" s="23" t="s">
+      <c r="A183" s="19" t="s">
         <v>707</v>
       </c>
-      <c r="B183" s="22"/>
+      <c r="B183" s="18"/>
     </row>
     <row r="184" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A184" s="22"/>
-      <c r="B184" s="8" t="s">
+      <c r="A184" s="18"/>
+      <c r="B184" s="7" t="s">
         <v>706</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A185" s="22"/>
-      <c r="B185" s="8" t="s">
+      <c r="A185" s="18"/>
+      <c r="B185" s="7" t="s">
         <v>705</v>
       </c>
     </row>
     <row r="186" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A186" s="22"/>
-      <c r="B186" s="8" t="s">
+      <c r="A186" s="18"/>
+      <c r="B186" s="7" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187" s="22" t="s">
+      <c r="A187" s="18" t="s">
         <v>703</v>
       </c>
-      <c r="B187" s="22"/>
+      <c r="B187" s="18"/>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188" s="22"/>
-      <c r="B188" s="22"/>
+      <c r="A188" s="18"/>
+      <c r="B188" s="18"/>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A189" s="22" t="s">
+      <c r="A189" s="18" t="s">
         <v>458</v>
       </c>
-      <c r="B189" s="22"/>
+      <c r="B189" s="18"/>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A190" s="22"/>
-      <c r="B190" s="22"/>
+      <c r="A190" s="18"/>
+      <c r="B190" s="18"/>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A191" s="22" t="s">
+      <c r="A191" s="18" t="s">
         <v>702</v>
       </c>
-      <c r="B191" s="22"/>
+      <c r="B191" s="18"/>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A192" s="22"/>
-      <c r="B192" s="22"/>
+      <c r="A192" s="18"/>
+      <c r="B192" s="18"/>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193" s="22" t="s">
+      <c r="A193" s="18" t="s">
         <v>460</v>
       </c>
-      <c r="B193" s="22"/>
+      <c r="B193" s="18"/>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" s="22" t="s">
+      <c r="A194" s="18" t="s">
         <v>701</v>
       </c>
-      <c r="B194" s="22"/>
+      <c r="B194" s="18"/>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195" s="22"/>
-      <c r="B195" s="22"/>
+      <c r="A195" s="18"/>
+      <c r="B195" s="18"/>
     </row>
     <row r="196" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A196" s="23" t="s">
+      <c r="A196" s="19" t="s">
         <v>451</v>
       </c>
-      <c r="B196" s="22"/>
+      <c r="B196" s="18"/>
     </row>
     <row r="197" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A197" s="23" t="s">
+      <c r="A197" s="19" t="s">
         <v>700</v>
       </c>
-      <c r="B197" s="22"/>
+      <c r="B197" s="18"/>
     </row>
     <row r="198" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A198" s="22"/>
-      <c r="B198" s="8" t="s">
+      <c r="A198" s="18"/>
+      <c r="B198" s="7" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="199" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A199" s="22"/>
-      <c r="B199" s="8" t="s">
+      <c r="A199" s="18"/>
+      <c r="B199" s="7" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A200" s="22" t="s">
+      <c r="A200" s="18" t="s">
         <v>456</v>
       </c>
-      <c r="B200" s="22"/>
+      <c r="B200" s="18"/>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201" s="22" t="s">
+      <c r="A201" s="18" t="s">
         <v>699</v>
       </c>
-      <c r="B201" s="22"/>
+      <c r="B201" s="18"/>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A202" s="22"/>
-      <c r="B202" s="22"/>
+      <c r="A202" s="18"/>
+      <c r="B202" s="18"/>
     </row>
     <row r="203" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A203" s="23" t="s">
+      <c r="A203" s="19" t="s">
         <v>298</v>
       </c>
-      <c r="B203" s="22"/>
+      <c r="B203" s="18"/>
     </row>
     <row r="204" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A204" s="23" t="s">
+      <c r="A204" s="19" t="s">
         <v>698</v>
       </c>
-      <c r="B204" s="22"/>
+      <c r="B204" s="18"/>
     </row>
     <row r="205" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A205" s="22"/>
-      <c r="B205" s="8" t="s">
+      <c r="A205" s="18"/>
+      <c r="B205" s="7" t="s">
         <v>697</v>
       </c>
     </row>
     <row r="206" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A206" s="22"/>
-      <c r="B206" s="8" t="s">
+      <c r="A206" s="18"/>
+      <c r="B206" s="7" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="207" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A207" s="22"/>
-      <c r="B207" s="8" t="s">
+      <c r="A207" s="18"/>
+      <c r="B207" s="7" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="208" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A208" s="23" t="s">
+      <c r="A208" s="19" t="s">
         <v>428</v>
       </c>
-      <c r="B208" s="22"/>
+      <c r="B208" s="18"/>
     </row>
     <row r="209" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A209" s="23" t="s">
+      <c r="A209" s="19" t="s">
         <v>696</v>
       </c>
-      <c r="B209" s="22"/>
+      <c r="B209" s="18"/>
     </row>
     <row r="210" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A210" s="22"/>
-      <c r="B210" s="8" t="s">
+      <c r="A210" s="18"/>
+      <c r="B210" s="7" t="s">
         <v>695</v>
       </c>
     </row>
     <row r="211" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A211" s="22"/>
-      <c r="B211" s="8" t="s">
+      <c r="A211" s="18"/>
+      <c r="B211" s="7" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="212" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A212" s="23" t="s">
+      <c r="A212" s="19" t="s">
         <v>452</v>
       </c>
-      <c r="B212" s="22"/>
+      <c r="B212" s="18"/>
     </row>
     <row r="213" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A213" s="23" t="s">
+      <c r="A213" s="19" t="s">
         <v>694</v>
       </c>
-      <c r="B213" s="22"/>
+      <c r="B213" s="18"/>
     </row>
     <row r="214" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A214" s="22"/>
-      <c r="B214" s="8" t="s">
+      <c r="A214" s="18"/>
+      <c r="B214" s="7" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="215" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A215" s="22"/>
-      <c r="B215" s="8" t="s">
+      <c r="A215" s="18"/>
+      <c r="B215" s="7" t="s">
         <v>671</v>
       </c>
     </row>
     <row r="216" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A216" s="23" t="s">
+      <c r="A216" s="19" t="s">
         <v>453</v>
       </c>
-      <c r="B216" s="22"/>
+      <c r="B216" s="18"/>
     </row>
     <row r="217" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A217" s="23" t="s">
+      <c r="A217" s="19" t="s">
         <v>693</v>
       </c>
-      <c r="B217" s="22"/>
+      <c r="B217" s="18"/>
     </row>
     <row r="218" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A218" s="22"/>
-      <c r="B218" s="8" t="s">
+      <c r="A218" s="18"/>
+      <c r="B218" s="7" t="s">
         <v>692</v>
       </c>
     </row>
     <row r="219" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A219" s="22"/>
-      <c r="B219" s="8" t="s">
+      <c r="A219" s="18"/>
+      <c r="B219" s="7" t="s">
         <v>691</v>
       </c>
     </row>
     <row r="220" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A220" s="22"/>
-      <c r="B220" s="8" t="s">
+      <c r="A220" s="18"/>
+      <c r="B220" s="7" t="s">
         <v>690</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A221" s="22" t="s">
+      <c r="A221" s="18" t="s">
         <v>689</v>
       </c>
-      <c r="B221" s="22"/>
+      <c r="B221" s="18"/>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A222" s="22" t="s">
+      <c r="A222" s="18" t="s">
         <v>688</v>
       </c>
-      <c r="B222" s="22"/>
+      <c r="B222" s="18"/>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A223" s="22"/>
-      <c r="B223" s="22"/>
+      <c r="A223" s="18"/>
+      <c r="B223" s="18"/>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A224" s="22" t="s">
+      <c r="A224" s="18" t="s">
         <v>687</v>
       </c>
-      <c r="B224" s="22"/>
+      <c r="B224" s="18"/>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A225" s="22" t="s">
+      <c r="A225" s="18" t="s">
         <v>686</v>
       </c>
-      <c r="B225" s="22"/>
+      <c r="B225" s="18"/>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A226" s="22"/>
-      <c r="B226" s="22"/>
+      <c r="A226" s="18"/>
+      <c r="B226" s="18"/>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A227" s="22" t="s">
+      <c r="A227" s="18" t="s">
         <v>450</v>
       </c>
-      <c r="B227" s="22"/>
+      <c r="B227" s="18"/>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A228" s="22"/>
-      <c r="B228" s="22"/>
+      <c r="A228" s="18"/>
+      <c r="B228" s="18"/>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A229" s="22" t="s">
+      <c r="A229" s="18" t="s">
         <v>449</v>
       </c>
-      <c r="B229" s="22"/>
+      <c r="B229" s="18"/>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A230" s="22"/>
-      <c r="B230" s="22"/>
+      <c r="A230" s="18"/>
+      <c r="B230" s="18"/>
     </row>
     <row r="231" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A231" s="23" t="s">
+      <c r="A231" s="19" t="s">
         <v>685</v>
       </c>
-      <c r="B231" s="22"/>
+      <c r="B231" s="18"/>
     </row>
     <row r="232" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A232" s="23" t="s">
+      <c r="A232" s="19" t="s">
         <v>684</v>
       </c>
-      <c r="B232" s="22"/>
+      <c r="B232" s="18"/>
     </row>
     <row r="233" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A233" s="22"/>
-      <c r="B233" s="8" t="s">
+      <c r="A233" s="18"/>
+      <c r="B233" s="7" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="234" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A234" s="22"/>
-      <c r="B234" s="8" t="s">
+      <c r="A234" s="18"/>
+      <c r="B234" s="7" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="235" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A235" s="23" t="s">
+      <c r="A235" s="19" t="s">
         <v>683</v>
       </c>
-      <c r="B235" s="22"/>
+      <c r="B235" s="18"/>
     </row>
     <row r="236" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A236" s="23" t="s">
+      <c r="A236" s="19" t="s">
         <v>682</v>
       </c>
-      <c r="B236" s="22"/>
+      <c r="B236" s="18"/>
     </row>
     <row r="237" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A237" s="22"/>
-      <c r="B237" s="8" t="s">
+      <c r="A237" s="18"/>
+      <c r="B237" s="7" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="238" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A238" s="22"/>
-      <c r="B238" s="8" t="s">
+      <c r="A238" s="18"/>
+      <c r="B238" s="7" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="239" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A239" s="22"/>
-      <c r="B239" s="8" t="s">
+      <c r="A239" s="18"/>
+      <c r="B239" s="7" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="240" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A240" s="23" t="s">
+      <c r="A240" s="19" t="s">
         <v>439</v>
       </c>
-      <c r="B240" s="22"/>
+      <c r="B240" s="18"/>
     </row>
     <row r="241" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A241" s="23" t="s">
+      <c r="A241" s="19" t="s">
         <v>680</v>
       </c>
-      <c r="B241" s="22"/>
+      <c r="B241" s="18"/>
     </row>
     <row r="242" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A242" s="22"/>
-      <c r="B242" s="8" t="s">
+      <c r="A242" s="18"/>
+      <c r="B242" s="7" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="243" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A243" s="23" t="s">
+      <c r="A243" s="19" t="s">
         <v>438</v>
       </c>
-      <c r="B243" s="14"/>
+      <c r="B243" s="12"/>
     </row>
     <row r="244" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A244" s="23" t="s">
+      <c r="A244" s="19" t="s">
         <v>679</v>
       </c>
-      <c r="B244" s="14"/>
+      <c r="B244" s="12"/>
     </row>
     <row r="245" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A245" s="22"/>
-      <c r="B245" s="8" t="s">
+      <c r="A245" s="18"/>
+      <c r="B245" s="7" t="s">
         <v>678</v>
       </c>
     </row>
     <row r="246" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A246" s="22"/>
-      <c r="B246" s="8" t="s">
+      <c r="A246" s="18"/>
+      <c r="B246" s="7" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="247" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A247" s="23" t="s">
+      <c r="A247" s="19" t="s">
         <v>430</v>
       </c>
-      <c r="B247" s="22"/>
+      <c r="B247" s="18"/>
     </row>
     <row r="248" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A248" s="23" t="s">
+      <c r="A248" s="19" t="s">
         <v>677</v>
       </c>
-      <c r="B248" s="22"/>
+      <c r="B248" s="18"/>
     </row>
     <row r="249" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A249" s="22"/>
-      <c r="B249" s="8" t="s">
+      <c r="A249" s="18"/>
+      <c r="B249" s="7" t="s">
         <v>676</v>
       </c>
     </row>
     <row r="250" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A250" s="22"/>
-      <c r="B250" s="8" t="s">
+      <c r="A250" s="18"/>
+      <c r="B250" s="7" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="251" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A251" s="22"/>
-      <c r="B251" s="8" t="s">
+      <c r="A251" s="18"/>
+      <c r="B251" s="7" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="252" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A252" s="22"/>
-      <c r="B252" s="8" t="s">
+      <c r="A252" s="18"/>
+      <c r="B252" s="7" t="s">
         <v>673</v>
       </c>
     </row>
     <row r="253" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A253" s="23" t="s">
+      <c r="A253" s="19" t="s">
         <v>429</v>
       </c>
-      <c r="B253" s="22"/>
+      <c r="B253" s="18"/>
     </row>
     <row r="254" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A254" s="23" t="s">
+      <c r="A254" s="19" t="s">
         <v>672</v>
       </c>
-      <c r="B254" s="22"/>
+      <c r="B254" s="18"/>
     </row>
     <row r="255" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A255" s="22"/>
-      <c r="B255" s="8" t="s">
+      <c r="A255" s="18"/>
+      <c r="B255" s="7" t="s">
         <v>671</v>
       </c>
     </row>
     <row r="256" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A256" s="22"/>
-      <c r="B256" s="8" t="s">
+      <c r="A256" s="18"/>
+      <c r="B256" s="7" t="s">
         <v>670</v>
       </c>
     </row>
     <row r="257" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A257" s="23" t="s">
+      <c r="A257" s="19" t="s">
         <v>428</v>
       </c>
-      <c r="B257" s="22"/>
+      <c r="B257" s="18"/>
     </row>
     <row r="258" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A258" s="23" t="s">
+      <c r="A258" s="19" t="s">
         <v>669</v>
       </c>
-      <c r="B258" s="22"/>
+      <c r="B258" s="18"/>
     </row>
     <row r="259" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A259" s="22"/>
-      <c r="B259" s="8" t="s">
+      <c r="A259" s="18"/>
+      <c r="B259" s="7" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="260" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A260" s="22"/>
-      <c r="B260" s="8" t="s">
+      <c r="A260" s="18"/>
+      <c r="B260" s="7" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A261" s="22" t="s">
+      <c r="A261" s="18" t="s">
         <v>427</v>
       </c>
-      <c r="B261" s="22"/>
+      <c r="B261" s="18"/>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A262" s="22"/>
-      <c r="B262" s="22"/>
+      <c r="A262" s="18"/>
+      <c r="B262" s="18"/>
     </row>
     <row r="263" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A263" s="23" t="s">
+      <c r="A263" s="19" t="s">
         <v>424</v>
       </c>
-      <c r="B263" s="22"/>
+      <c r="B263" s="18"/>
     </row>
     <row r="264" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A264" s="23" t="s">
+      <c r="A264" s="19" t="s">
         <v>668</v>
       </c>
-      <c r="B264" s="22"/>
+      <c r="B264" s="18"/>
     </row>
     <row r="265" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A265" s="22"/>
-      <c r="B265" s="8" t="s">
+      <c r="A265" s="18"/>
+      <c r="B265" s="7" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="266" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A266" s="22"/>
-      <c r="B266" s="8" t="s">
+      <c r="A266" s="18"/>
+      <c r="B266" s="7" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="267" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A267" s="22"/>
-      <c r="B267" s="8" t="s">
+      <c r="A267" s="18"/>
+      <c r="B267" s="7" t="s">
         <v>667</v>
       </c>
     </row>
     <row r="268" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A268" s="23" t="s">
+      <c r="A268" s="19" t="s">
         <v>423</v>
       </c>
-      <c r="B268" s="22"/>
+      <c r="B268" s="18"/>
     </row>
     <row r="269" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A269" s="23" t="s">
+      <c r="A269" s="19" t="s">
         <v>666</v>
       </c>
-      <c r="B269" s="22"/>
+      <c r="B269" s="18"/>
     </row>
     <row r="270" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A270" s="22"/>
-      <c r="B270" s="8" t="s">
+      <c r="A270" s="18"/>
+      <c r="B270" s="7" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="271" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A271" s="22"/>
-      <c r="B271" s="8" t="s">
+      <c r="A271" s="18"/>
+      <c r="B271" s="7" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A272" s="22" t="s">
+      <c r="A272" s="18" t="s">
         <v>422</v>
       </c>
-      <c r="B272" s="22"/>
+      <c r="B272" s="18"/>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A273" s="22"/>
-      <c r="B273" s="22"/>
+      <c r="A273" s="18"/>
+      <c r="B273" s="18"/>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A274" s="22" t="s">
+      <c r="A274" s="18" t="s">
         <v>421</v>
       </c>
-      <c r="B274" s="22"/>
+      <c r="B274" s="18"/>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A275" s="22"/>
-      <c r="B275" s="22"/>
+      <c r="A275" s="18"/>
+      <c r="B275" s="18"/>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A276" s="22" t="s">
+      <c r="A276" s="18" t="s">
         <v>420</v>
       </c>
-      <c r="B276" s="22"/>
+      <c r="B276" s="18"/>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A277" s="22"/>
-      <c r="B277" s="22"/>
+      <c r="A277" s="18"/>
+      <c r="B277" s="18"/>
     </row>
     <row r="278" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A278" s="23" t="s">
+      <c r="A278" s="19" t="s">
         <v>665</v>
       </c>
-      <c r="B278" s="22"/>
+      <c r="B278" s="18"/>
     </row>
     <row r="279" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A279" s="23" t="s">
+      <c r="A279" s="19" t="s">
         <v>664</v>
       </c>
-      <c r="B279" s="22"/>
+      <c r="B279" s="18"/>
     </row>
     <row r="280" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A280" s="22"/>
-      <c r="B280" s="8" t="s">
+      <c r="A280" s="18"/>
+      <c r="B280" s="7" t="s">
         <v>663</v>
       </c>
     </row>
     <row r="281" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A281" s="22"/>
-      <c r="B281" s="8" t="s">
+      <c r="A281" s="18"/>
+      <c r="B281" s="7" t="s">
         <v>662</v>
       </c>
     </row>
     <row r="282" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A282" s="23" t="s">
+      <c r="A282" s="19" t="s">
         <v>414</v>
       </c>
-      <c r="B282" s="22"/>
+      <c r="B282" s="18"/>
     </row>
     <row r="283" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A283" s="23" t="s">
+      <c r="A283" s="19" t="s">
         <v>661</v>
       </c>
-      <c r="B283" s="22"/>
+      <c r="B283" s="18"/>
     </row>
     <row r="284" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A284" s="22"/>
-      <c r="B284" s="8" t="s">
+      <c r="A284" s="18"/>
+      <c r="B284" s="7" t="s">
         <v>660</v>
       </c>
     </row>
     <row r="285" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A285" s="22"/>
-      <c r="B285" s="8" t="s">
+      <c r="A285" s="18"/>
+      <c r="B285" s="7" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="286" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A286" s="22"/>
-      <c r="B286" s="8" t="s">
+      <c r="A286" s="18"/>
+      <c r="B286" s="7" t="s">
         <v>659</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A287" s="22" t="s">
+      <c r="A287" s="18" t="s">
         <v>413</v>
       </c>
-      <c r="B287" s="22"/>
+      <c r="B287" s="18"/>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A288" s="22"/>
-      <c r="B288" s="22"/>
+      <c r="A288" s="18"/>
+      <c r="B288" s="18"/>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A289" s="22" t="s">
+      <c r="A289" s="18" t="s">
         <v>412</v>
       </c>
-      <c r="B289" s="22"/>
+      <c r="B289" s="18"/>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A290" s="22"/>
-      <c r="B290" s="22"/>
+      <c r="A290" s="18"/>
+      <c r="B290" s="18"/>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A291" s="22" t="s">
+      <c r="A291" s="18" t="s">
         <v>411</v>
       </c>
-      <c r="B291" s="22"/>
+      <c r="B291" s="18"/>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A292" s="22"/>
-      <c r="B292" s="22"/>
+      <c r="A292" s="18"/>
+      <c r="B292" s="18"/>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A293" s="22" t="s">
+      <c r="A293" s="18" t="s">
         <v>410</v>
       </c>
-      <c r="B293" s="22"/>
+      <c r="B293" s="18"/>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A294" s="22" t="s">
+      <c r="A294" s="18" t="s">
         <v>658</v>
       </c>
-      <c r="B294" s="22"/>
+      <c r="B294" s="18"/>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A295" s="22"/>
-      <c r="B295" s="22"/>
+      <c r="A295" s="18"/>
+      <c r="B295" s="18"/>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A296" s="22" t="s">
+      <c r="A296" s="18" t="s">
         <v>657</v>
       </c>
-      <c r="B296" s="22"/>
+      <c r="B296" s="18"/>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A297" s="22"/>
-      <c r="B297" s="22"/>
+      <c r="A297" s="18"/>
+      <c r="B297" s="18"/>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A298" s="22" t="s">
+      <c r="A298" s="18" t="s">
         <v>649</v>
       </c>
-      <c r="B298" s="22"/>
+      <c r="B298" s="18"/>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A299" s="22" t="s">
+      <c r="A299" s="18" t="s">
         <v>656</v>
       </c>
-      <c r="B299" s="22"/>
+      <c r="B299" s="18"/>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A300" s="22"/>
-      <c r="B300" s="22"/>
+      <c r="A300" s="18"/>
+      <c r="B300" s="18"/>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A301" s="22" t="s">
+      <c r="A301" s="18" t="s">
         <v>655</v>
       </c>
-      <c r="B301" s="22"/>
+      <c r="B301" s="18"/>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A302" s="22"/>
-      <c r="B302" s="22"/>
+      <c r="A302" s="18"/>
+      <c r="B302" s="18"/>
     </row>
     <row r="303" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A303" s="23" t="s">
+      <c r="A303" s="19" t="s">
         <v>654</v>
       </c>
-      <c r="B303" s="22"/>
+      <c r="B303" s="18"/>
     </row>
     <row r="304" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A304" s="23" t="s">
+      <c r="A304" s="19" t="s">
         <v>588</v>
       </c>
-      <c r="B304" s="22"/>
+      <c r="B304" s="18"/>
     </row>
     <row r="305" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A305" s="22"/>
-      <c r="B305" s="8" t="s">
+      <c r="A305" s="18"/>
+      <c r="B305" s="7" t="s">
         <v>653</v>
       </c>
     </row>
     <row r="306" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A306" s="22"/>
-      <c r="B306" s="8" t="s">
+      <c r="A306" s="18"/>
+      <c r="B306" s="7" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A307" s="22" t="s">
+      <c r="A307" s="18" t="s">
         <v>398</v>
       </c>
-      <c r="B307" s="22"/>
+      <c r="B307" s="18"/>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A308" s="22"/>
-      <c r="B308" s="22"/>
+      <c r="A308" s="18"/>
+      <c r="B308" s="18"/>
     </row>
     <row r="309" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A309" s="23" t="s">
+      <c r="A309" s="19" t="s">
         <v>652</v>
       </c>
-      <c r="B309" s="22"/>
+      <c r="B309" s="18"/>
     </row>
     <row r="310" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A310" s="23" t="s">
+      <c r="A310" s="19" t="s">
         <v>651</v>
       </c>
-      <c r="B310" s="22"/>
+      <c r="B310" s="18"/>
     </row>
     <row r="311" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A311" s="22"/>
-      <c r="B311" s="8" t="s">
+      <c r="A311" s="18"/>
+      <c r="B311" s="7" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="312" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A312" s="22"/>
-      <c r="B312" s="8" t="s">
+      <c r="A312" s="18"/>
+      <c r="B312" s="7" t="s">
         <v>649</v>
       </c>
     </row>
     <row r="313" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A313" s="22"/>
-      <c r="B313" s="8" t="s">
+      <c r="A313" s="18"/>
+      <c r="B313" s="7" t="s">
         <v>648</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A314" s="22" t="s">
+      <c r="A314" s="18" t="s">
         <v>647</v>
       </c>
-      <c r="B314" s="22"/>
+      <c r="B314" s="18"/>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A315" s="22"/>
-      <c r="B315" s="22"/>
+      <c r="A315" s="18"/>
+      <c r="B315" s="18"/>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A316" s="22" t="s">
+      <c r="A316" s="18" t="s">
         <v>646</v>
       </c>
-      <c r="B316" s="22"/>
+      <c r="B316" s="18"/>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A317" s="22"/>
-      <c r="B317" s="22"/>
+      <c r="A317" s="18"/>
+      <c r="B317" s="18"/>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A318" s="22" t="s">
+      <c r="A318" s="18" t="s">
         <v>374</v>
       </c>
-      <c r="B318" s="22"/>
+      <c r="B318" s="18"/>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A319" s="22"/>
-      <c r="B319" s="22"/>
+      <c r="A319" s="18"/>
+      <c r="B319" s="18"/>
     </row>
     <row r="320" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A320" s="23" t="s">
+      <c r="A320" s="19" t="s">
         <v>645</v>
       </c>
-      <c r="B320" s="22"/>
+      <c r="B320" s="18"/>
     </row>
     <row r="321" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A321" s="23" t="s">
+      <c r="A321" s="19" t="s">
         <v>644</v>
       </c>
-      <c r="B321" s="22"/>
+      <c r="B321" s="18"/>
     </row>
     <row r="322" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A322" s="22"/>
-      <c r="B322" s="8" t="s">
+      <c r="A322" s="18"/>
+      <c r="B322" s="7" t="s">
         <v>643</v>
       </c>
     </row>
     <row r="323" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A323" s="22"/>
-      <c r="B323" s="8" t="s">
+      <c r="A323" s="18"/>
+      <c r="B323" s="7" t="s">
         <v>642</v>
       </c>
     </row>
     <row r="324" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A324" s="22"/>
-      <c r="B324" s="8" t="s">
+      <c r="A324" s="18"/>
+      <c r="B324" s="7" t="s">
         <v>641</v>
       </c>
     </row>
     <row r="325" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A325" s="23" t="s">
+      <c r="A325" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="B325" s="22"/>
+      <c r="B325" s="18"/>
     </row>
     <row r="326" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A326" s="23" t="s">
+      <c r="A326" s="19" t="s">
         <v>640</v>
       </c>
-      <c r="B326" s="22"/>
+      <c r="B326" s="18"/>
     </row>
     <row r="327" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A327" s="22"/>
-      <c r="B327" s="8" t="s">
+      <c r="A327" s="18"/>
+      <c r="B327" s="7" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="328" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A328" s="22"/>
-      <c r="B328" s="8" t="s">
+      <c r="A328" s="18"/>
+      <c r="B328" s="7" t="s">
         <v>638</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A329" s="22" t="s">
+      <c r="A329" s="18" t="s">
         <v>390</v>
       </c>
-      <c r="B329" s="22"/>
+      <c r="B329" s="18"/>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A330" s="22" t="s">
+      <c r="A330" s="18" t="s">
         <v>637</v>
       </c>
-      <c r="B330" s="22"/>
+      <c r="B330" s="18"/>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A331" s="22"/>
-      <c r="B331" s="22"/>
+      <c r="A331" s="18"/>
+      <c r="B331" s="18"/>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A332" s="22" t="s">
+      <c r="A332" s="18" t="s">
         <v>389</v>
       </c>
-      <c r="B332" s="22"/>
+      <c r="B332" s="18"/>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A333" s="22" t="s">
+      <c r="A333" s="18" t="s">
         <v>636</v>
       </c>
-      <c r="B333" s="22"/>
+      <c r="B333" s="18"/>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A334" s="22"/>
-      <c r="B334" s="22"/>
+      <c r="A334" s="18"/>
+      <c r="B334" s="18"/>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A335" s="22" t="s">
+      <c r="A335" s="18" t="s">
         <v>635</v>
       </c>
-      <c r="B335" s="22"/>
+      <c r="B335" s="18"/>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A336" s="22"/>
-      <c r="B336" s="22"/>
+      <c r="A336" s="18"/>
+      <c r="B336" s="18"/>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A337" s="22" t="s">
+      <c r="A337" s="18" t="s">
         <v>378</v>
       </c>
-      <c r="B337" s="22"/>
+      <c r="B337" s="18"/>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A338" s="22"/>
-      <c r="B338" s="22"/>
+      <c r="A338" s="18"/>
+      <c r="B338" s="18"/>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A339" s="22" t="s">
+      <c r="A339" s="18" t="s">
         <v>634</v>
       </c>
-      <c r="B339" s="22"/>
+      <c r="B339" s="18"/>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A340" s="22"/>
-      <c r="B340" s="22"/>
+      <c r="A340" s="18"/>
+      <c r="B340" s="18"/>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A341" s="22" t="s">
+      <c r="A341" s="18" t="s">
         <v>633</v>
       </c>
-      <c r="B341" s="22"/>
+      <c r="B341" s="18"/>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A342" s="22"/>
-      <c r="B342" s="22"/>
+      <c r="A342" s="18"/>
+      <c r="B342" s="18"/>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A343" s="22" t="s">
+      <c r="A343" s="18" t="s">
         <v>373</v>
       </c>
-      <c r="B343" s="22"/>
+      <c r="B343" s="18"/>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A344" s="22"/>
-      <c r="B344" s="22"/>
+      <c r="A344" s="18"/>
+      <c r="B344" s="18"/>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A345" s="22" t="s">
+      <c r="A345" s="18" t="s">
         <v>632</v>
       </c>
-      <c r="B345" s="22"/>
+      <c r="B345" s="18"/>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A346" s="22"/>
-      <c r="B346" s="22"/>
+      <c r="A346" s="18"/>
+      <c r="B346" s="18"/>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A347" s="22" t="s">
+      <c r="A347" s="18" t="s">
         <v>631</v>
       </c>
-      <c r="B347" s="22"/>
+      <c r="B347" s="18"/>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A348" s="22"/>
-      <c r="B348" s="22"/>
+      <c r="A348" s="18"/>
+      <c r="B348" s="18"/>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A349" s="22" t="s">
+      <c r="A349" s="18" t="s">
         <v>630</v>
       </c>
-      <c r="B349" s="22"/>
+      <c r="B349" s="18"/>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A350" s="22"/>
-      <c r="B350" s="22"/>
+      <c r="A350" s="18"/>
+      <c r="B350" s="18"/>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A351" s="22" t="s">
+      <c r="A351" s="18" t="s">
         <v>629</v>
       </c>
-      <c r="B351" s="22" t="s">
+      <c r="B351" s="18" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A352" s="22"/>
-      <c r="B352" s="22"/>
+      <c r="A352" s="18"/>
+      <c r="B352" s="18"/>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A353" s="22" t="s">
+      <c r="A353" s="18" t="s">
         <v>330</v>
       </c>
-      <c r="B353" s="22"/>
+      <c r="B353" s="18"/>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A354" s="22"/>
-      <c r="B354" s="22"/>
+      <c r="A354" s="18"/>
+      <c r="B354" s="18"/>
     </row>
     <row r="355" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A355" s="23" t="s">
+      <c r="A355" s="19" t="s">
         <v>627</v>
       </c>
-      <c r="B355" s="22"/>
+      <c r="B355" s="18"/>
     </row>
     <row r="356" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A356" s="23" t="s">
+      <c r="A356" s="19" t="s">
         <v>626</v>
       </c>
-      <c r="B356" s="22"/>
+      <c r="B356" s="18"/>
     </row>
     <row r="357" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A357" s="22"/>
-      <c r="B357" s="8" t="s">
+      <c r="A357" s="18"/>
+      <c r="B357" s="7" t="s">
         <v>625</v>
       </c>
     </row>
     <row r="358" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A358" s="23" t="s">
+      <c r="A358" s="19" t="s">
         <v>624</v>
       </c>
-      <c r="B358" s="14"/>
+      <c r="B358" s="12"/>
     </row>
     <row r="359" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A359" s="23" t="s">
+      <c r="A359" s="19" t="s">
         <v>623</v>
       </c>
-      <c r="B359" s="22"/>
+      <c r="B359" s="18"/>
     </row>
     <row r="360" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A360" s="22"/>
-      <c r="B360" s="8" t="s">
+      <c r="A360" s="18"/>
+      <c r="B360" s="7" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A361" s="22" t="s">
+      <c r="A361" s="18" t="s">
         <v>324</v>
       </c>
-      <c r="B361" s="22"/>
+      <c r="B361" s="18"/>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A362" s="22"/>
-      <c r="B362" s="22"/>
+      <c r="A362" s="18"/>
+      <c r="B362" s="18"/>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A363" s="22" t="s">
+      <c r="A363" s="18" t="s">
         <v>323</v>
       </c>
-      <c r="B363" s="22"/>
+      <c r="B363" s="18"/>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A364" s="22"/>
-      <c r="B364" s="22"/>
+      <c r="A364" s="18"/>
+      <c r="B364" s="18"/>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A365" s="22" t="s">
+      <c r="A365" s="18" t="s">
         <v>621</v>
       </c>
-      <c r="B365" s="22"/>
+      <c r="B365" s="18"/>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A366" s="22" t="s">
+      <c r="A366" s="18" t="s">
         <v>620</v>
       </c>
-      <c r="B366" s="22"/>
+      <c r="B366" s="18"/>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A367" s="22"/>
-      <c r="B367" s="22"/>
+      <c r="A367" s="18"/>
+      <c r="B367" s="18"/>
     </row>
     <row r="368" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A368" s="23" t="s">
+      <c r="A368" s="19" t="s">
         <v>319</v>
       </c>
-      <c r="B368" s="22"/>
+      <c r="B368" s="18"/>
     </row>
     <row r="369" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A369" s="23" t="s">
+      <c r="A369" s="19" t="s">
         <v>619</v>
       </c>
-      <c r="B369" s="22"/>
+      <c r="B369" s="18"/>
     </row>
     <row r="370" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A370" s="22"/>
-      <c r="B370" s="8" t="s">
+      <c r="A370" s="18"/>
+      <c r="B370" s="7" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="371" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A371" s="22"/>
-      <c r="B371" s="8" t="s">
+      <c r="A371" s="18"/>
+      <c r="B371" s="7" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="372" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A372" s="23" t="s">
+      <c r="A372" s="19" t="s">
         <v>616</v>
       </c>
-      <c r="B372" s="22"/>
+      <c r="B372" s="18"/>
     </row>
     <row r="373" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A373" s="14"/>
-      <c r="B373" s="8" t="s">
+      <c r="A373" s="12"/>
+      <c r="B373" s="7" t="s">
         <v>615</v>
       </c>
     </row>
     <row r="374" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A374" s="22"/>
-      <c r="B374" s="8" t="s">
+      <c r="A374" s="18"/>
+      <c r="B374" s="7" t="s">
         <v>614</v>
       </c>
     </row>
     <row r="375" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A375" s="22"/>
-      <c r="B375" s="8" t="s">
+      <c r="A375" s="18"/>
+      <c r="B375" s="7" t="s">
         <v>613</v>
       </c>
     </row>
     <row r="376" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A376" s="22"/>
-      <c r="B376" s="8" t="s">
+      <c r="A376" s="18"/>
+      <c r="B376" s="7" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A377" s="22" t="s">
+      <c r="A377" s="18" t="s">
         <v>611</v>
       </c>
-      <c r="B377" s="22"/>
+      <c r="B377" s="18"/>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A378" s="22"/>
-      <c r="B378" s="22"/>
+      <c r="A378" s="18"/>
+      <c r="B378" s="18"/>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A379" s="22" t="s">
+      <c r="A379" s="18" t="s">
         <v>610</v>
       </c>
-      <c r="B379" s="22"/>
+      <c r="B379" s="18"/>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A380" s="22"/>
-      <c r="B380" s="22"/>
+      <c r="A380" s="18"/>
+      <c r="B380" s="18"/>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A381" s="22" t="s">
+      <c r="A381" s="18" t="s">
         <v>609</v>
       </c>
-      <c r="B381" s="22"/>
+      <c r="B381" s="18"/>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A382" s="22" t="s">
+      <c r="A382" s="18" t="s">
         <v>608</v>
       </c>
-      <c r="B382" s="22"/>
+      <c r="B382" s="18"/>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A383" s="22"/>
-      <c r="B383" s="22"/>
+      <c r="A383" s="18"/>
+      <c r="B383" s="18"/>
     </row>
     <row r="384" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A384" s="23" t="s">
+      <c r="A384" s="19" t="s">
         <v>305</v>
       </c>
-      <c r="B384" s="22"/>
+      <c r="B384" s="18"/>
     </row>
     <row r="385" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A385" s="14"/>
-      <c r="B385" s="8" t="s">
+      <c r="A385" s="12"/>
+      <c r="B385" s="7" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="386" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A386" s="23" t="s">
+      <c r="A386" s="19" t="s">
         <v>283</v>
       </c>
-      <c r="B386" s="22"/>
+      <c r="B386" s="18"/>
     </row>
     <row r="387" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A387" s="22"/>
-      <c r="B387" s="8" t="s">
+      <c r="A387" s="18"/>
+      <c r="B387" s="7" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A388" s="22"/>
-      <c r="B388" s="22"/>
+      <c r="A388" s="18"/>
+      <c r="B388" s="18"/>
     </row>
     <row r="389" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A389" s="23" t="s">
+      <c r="A389" s="19" t="s">
         <v>300</v>
       </c>
-      <c r="B389" s="22"/>
+      <c r="B389" s="18"/>
     </row>
     <row r="390" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A390" s="23" t="s">
+      <c r="A390" s="19" t="s">
         <v>605</v>
       </c>
-      <c r="B390" s="22"/>
+      <c r="B390" s="18"/>
     </row>
     <row r="391" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A391" s="22"/>
-      <c r="B391" s="8" t="s">
+      <c r="A391" s="18"/>
+      <c r="B391" s="7" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="392" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A392" s="22"/>
-      <c r="B392" s="8" t="s">
+      <c r="A392" s="18"/>
+      <c r="B392" s="7" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A393" s="22" t="s">
+      <c r="A393" s="18" t="s">
         <v>602</v>
       </c>
-      <c r="B393" s="22"/>
+      <c r="B393" s="18"/>
     </row>
     <row r="394" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A394" s="23" t="s">
+      <c r="A394" s="19" t="s">
         <v>299</v>
       </c>
-      <c r="B394" s="22"/>
+      <c r="B394" s="18"/>
     </row>
     <row r="395" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A395" s="23" t="s">
+      <c r="A395" s="19" t="s">
         <v>601</v>
       </c>
-      <c r="B395" s="22"/>
+      <c r="B395" s="18"/>
     </row>
     <row r="396" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A396" s="22"/>
-      <c r="B396" s="8" t="s">
+      <c r="A396" s="18"/>
+      <c r="B396" s="7" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="397" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A397" s="22"/>
-      <c r="B397" s="8" t="s">
+      <c r="A397" s="18"/>
+      <c r="B397" s="7" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="398" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A398" s="22"/>
-      <c r="B398" s="8" t="s">
+      <c r="A398" s="18"/>
+      <c r="B398" s="7" t="s">
         <v>599</v>
       </c>
     </row>
     <row r="399" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A399" s="23" t="s">
+      <c r="A399" s="19" t="s">
         <v>298</v>
       </c>
-      <c r="B399" s="22"/>
+      <c r="B399" s="18"/>
     </row>
     <row r="400" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A400" s="23" t="s">
+      <c r="A400" s="19" t="s">
         <v>598</v>
       </c>
-      <c r="B400" s="22"/>
+      <c r="B400" s="18"/>
     </row>
     <row r="401" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A401" s="22"/>
-      <c r="B401" s="8" t="s">
+      <c r="A401" s="18"/>
+      <c r="B401" s="7" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="402" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A402" s="22"/>
-      <c r="B402" s="8" t="s">
+      <c r="A402" s="18"/>
+      <c r="B402" s="7" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A403" s="22" t="s">
+      <c r="A403" s="18" t="s">
         <v>597</v>
       </c>
-      <c r="B403" s="22"/>
+      <c r="B403" s="18"/>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A404" s="22"/>
-      <c r="B404" s="22"/>
+      <c r="A404" s="18"/>
+      <c r="B404" s="18"/>
     </row>
     <row r="405" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A405" s="23" t="s">
+      <c r="A405" s="19" t="s">
         <v>596</v>
       </c>
-      <c r="B405" s="22"/>
+      <c r="B405" s="18"/>
     </row>
     <row r="406" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A406" s="23" t="s">
+      <c r="A406" s="19" t="s">
         <v>595</v>
       </c>
-      <c r="B406" s="22"/>
+      <c r="B406" s="18"/>
     </row>
     <row r="407" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A407" s="22"/>
-      <c r="B407" s="8" t="s">
+      <c r="A407" s="18"/>
+      <c r="B407" s="7" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="408" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A408" s="22"/>
-      <c r="B408" s="8" t="s">
+      <c r="A408" s="18"/>
+      <c r="B408" s="7" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A409" s="22"/>
-      <c r="B409" s="22"/>
+      <c r="A409" s="18"/>
+      <c r="B409" s="18"/>
     </row>
     <row r="410" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A410" s="23" t="s">
+      <c r="A410" s="19" t="s">
         <v>592</v>
       </c>
-      <c r="B410" s="22"/>
+      <c r="B410" s="18"/>
     </row>
     <row r="411" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A411" s="23" t="s">
+      <c r="A411" s="19" t="s">
         <v>591</v>
       </c>
-      <c r="B411" s="22"/>
+      <c r="B411" s="18"/>
     </row>
     <row r="412" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A412" s="22"/>
-      <c r="B412" s="8" t="s">
+      <c r="A412" s="18"/>
+      <c r="B412" s="7" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="413" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A413" s="22"/>
-      <c r="B413" s="8" t="s">
+      <c r="A413" s="18"/>
+      <c r="B413" s="7" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A414" s="22"/>
-      <c r="B414" s="22"/>
+      <c r="A414" s="18"/>
+      <c r="B414" s="18"/>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A415" s="22" t="s">
+      <c r="A415" s="18" t="s">
         <v>292</v>
       </c>
-      <c r="B415" s="22"/>
+      <c r="B415" s="18"/>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A416" s="22"/>
-      <c r="B416" s="22"/>
+      <c r="A416" s="18"/>
+      <c r="B416" s="18"/>
     </row>
     <row r="417" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A417" s="23" t="s">
+      <c r="A417" s="19" t="s">
         <v>291</v>
       </c>
-      <c r="B417" s="22"/>
+      <c r="B417" s="18"/>
     </row>
     <row r="418" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A418" s="23" t="s">
+      <c r="A418" s="19" t="s">
         <v>588</v>
       </c>
-      <c r="B418" s="22"/>
+      <c r="B418" s="18"/>
     </row>
     <row r="419" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A419" s="22"/>
-      <c r="B419" s="8" t="s">
+      <c r="A419" s="18"/>
+      <c r="B419" s="7" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="420" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A420" s="22"/>
-      <c r="B420" s="8" t="s">
+      <c r="A420" s="18"/>
+      <c r="B420" s="7" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A421" s="22"/>
-      <c r="B421" s="22"/>
+      <c r="A421" s="18"/>
+      <c r="B421" s="18"/>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A422" s="22" t="s">
+      <c r="A422" s="18" t="s">
         <v>290</v>
       </c>
-      <c r="B422" s="22"/>
+      <c r="B422" s="18"/>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A423" s="22"/>
-      <c r="B423" s="22"/>
+      <c r="A423" s="18"/>
+      <c r="B423" s="18"/>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A424" s="22" t="s">
+      <c r="A424" s="18" t="s">
         <v>586</v>
       </c>
-      <c r="B424" s="22"/>
+      <c r="B424" s="18"/>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A425" s="22"/>
-      <c r="B425" s="22"/>
+      <c r="A425" s="18"/>
+      <c r="B425" s="18"/>
     </row>
     <row r="426" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A426" s="23" t="s">
+      <c r="A426" s="19" t="s">
         <v>287</v>
       </c>
-      <c r="B426" s="22"/>
+      <c r="B426" s="18"/>
     </row>
     <row r="427" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A427" s="23" t="s">
+      <c r="A427" s="19" t="s">
         <v>585</v>
       </c>
-      <c r="B427" s="22"/>
+      <c r="B427" s="18"/>
     </row>
     <row r="428" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A428" s="22"/>
-      <c r="B428" s="8" t="s">
+      <c r="A428" s="18"/>
+      <c r="B428" s="7" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="429" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A429" s="22"/>
-      <c r="B429" s="8" t="s">
+      <c r="A429" s="18"/>
+      <c r="B429" s="7" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="430" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A430" s="22"/>
-      <c r="B430" s="8" t="s">
+      <c r="A430" s="18"/>
+      <c r="B430" s="7" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="431" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A431" s="22"/>
-      <c r="B431" s="8" t="s">
+      <c r="A431" s="18"/>
+      <c r="B431" s="7" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A432" s="22"/>
-      <c r="B432" s="22"/>
+      <c r="A432" s="18"/>
+      <c r="B432" s="18"/>
     </row>
     <row r="433" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A433" s="23" t="s">
+      <c r="A433" s="19" t="s">
         <v>581</v>
       </c>
-      <c r="B433" s="22"/>
+      <c r="B433" s="18"/>
     </row>
     <row r="434" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A434" s="23" t="s">
+      <c r="A434" s="19" t="s">
         <v>580</v>
       </c>
-      <c r="B434" s="22"/>
+      <c r="B434" s="18"/>
     </row>
     <row r="435" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A435" s="22"/>
-      <c r="B435" s="8" t="s">
+      <c r="A435" s="18"/>
+      <c r="B435" s="7" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="436" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A436" s="22"/>
-      <c r="B436" s="8" t="s">
+      <c r="A436" s="18"/>
+      <c r="B436" s="7" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A437" s="22"/>
-      <c r="B437" s="22"/>
+      <c r="A437" s="18"/>
+      <c r="B437" s="18"/>
     </row>
     <row r="438" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A438" s="23" t="s">
+      <c r="A438" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="B438" s="22"/>
+      <c r="B438" s="18"/>
     </row>
     <row r="439" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A439" s="23" t="s">
+      <c r="A439" s="19" t="s">
         <v>577</v>
       </c>
-      <c r="B439" s="22"/>
+      <c r="B439" s="18"/>
     </row>
     <row r="440" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A440" s="22"/>
-      <c r="B440" s="8" t="s">
+      <c r="A440" s="18"/>
+      <c r="B440" s="7" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="441" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A441" s="22"/>
-      <c r="B441" s="8" t="s">
+      <c r="A441" s="18"/>
+      <c r="B441" s="7" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A442" s="22"/>
-      <c r="B442" s="22"/>
+      <c r="A442" s="18"/>
+      <c r="B442" s="18"/>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A443" s="22" t="s">
+      <c r="A443" s="18" t="s">
         <v>283</v>
       </c>
-      <c r="B443" s="22"/>
+      <c r="B443" s="18"/>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A444" s="22"/>
-      <c r="B444" s="22"/>
+      <c r="A444" s="18"/>
+      <c r="B444" s="18"/>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A445" s="22" t="s">
+      <c r="A445" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="B445" s="22"/>
+      <c r="B445" s="18"/>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A446" s="22"/>
-      <c r="B446" s="22"/>
+      <c r="A446" s="18"/>
+      <c r="B446" s="18"/>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A447" s="22" t="s">
+      <c r="A447" s="18" t="s">
         <v>574</v>
       </c>
-      <c r="B447" s="22"/>
+      <c r="B447" s="18"/>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A448" s="22" t="s">
+      <c r="A448" s="18" t="s">
         <v>573</v>
       </c>
-      <c r="B448" s="22"/>
+      <c r="B448" s="18"/>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A449" s="22"/>
-      <c r="B449" s="22"/>
+      <c r="A449" s="18"/>
+      <c r="B449" s="18"/>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A450" s="22" t="s">
+      <c r="A450" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B450" s="22"/>
+      <c r="B450" s="18"/>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A451" s="22"/>
-      <c r="B451" s="22"/>
+      <c r="A451" s="18"/>
+      <c r="B451" s="18"/>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A452" s="22" t="s">
+      <c r="A452" s="18" t="s">
         <v>378</v>
       </c>
-      <c r="B452" s="22"/>
+      <c r="B452" s="18"/>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A453" s="22"/>
-      <c r="B453" s="22"/>
+      <c r="A453" s="18"/>
+      <c r="B453" s="18"/>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A454" s="22" t="s">
+      <c r="A454" s="18" t="s">
         <v>572</v>
       </c>
-      <c r="B454" s="22"/>
+      <c r="B454" s="18"/>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A455" s="22"/>
-      <c r="B455" s="22"/>
+      <c r="A455" s="18"/>
+      <c r="B455" s="18"/>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A456" s="22" t="s">
+      <c r="A456" s="18" t="s">
         <v>571</v>
       </c>
-      <c r="B456" s="22"/>
+      <c r="B456" s="18"/>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A457" s="22" t="s">
+      <c r="A457" s="18" t="s">
         <v>570</v>
       </c>
-      <c r="B457" s="22"/>
+      <c r="B457" s="18"/>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A458" s="22"/>
-      <c r="B458" s="22"/>
+      <c r="A458" s="18"/>
+      <c r="B458" s="18"/>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A459" s="22" t="s">
+      <c r="A459" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="B459" s="22"/>
+      <c r="B459" s="18"/>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A460" s="22" t="s">
+      <c r="A460" s="18" t="s">
         <v>569</v>
       </c>
-      <c r="B460" s="22"/>
+      <c r="B460" s="18"/>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A461" s="22"/>
-      <c r="B461" s="22"/>
+      <c r="A461" s="18"/>
+      <c r="B461" s="18"/>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A462" s="22" t="s">
+      <c r="A462" s="18" t="s">
         <v>568</v>
       </c>
-      <c r="B462" s="22"/>
+      <c r="B462" s="18"/>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A463" s="22"/>
-      <c r="B463" s="22"/>
+      <c r="A463" s="18"/>
+      <c r="B463" s="18"/>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A464" s="22" t="s">
+      <c r="A464" s="18" t="s">
         <v>567</v>
       </c>
-      <c r="B464" s="22"/>
+      <c r="B464" s="18"/>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A465" s="22"/>
-      <c r="B465" s="22"/>
+      <c r="A465" s="18"/>
+      <c r="B465" s="18"/>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A466" s="22" t="s">
+      <c r="A466" s="18" t="s">
         <v>566</v>
       </c>
-      <c r="B466" s="22"/>
+      <c r="B466" s="18"/>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A467" s="22"/>
-      <c r="B467" s="22"/>
+      <c r="A467" s="18"/>
+      <c r="B467" s="18"/>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A468" s="22" t="s">
+      <c r="A468" s="18" t="s">
         <v>565</v>
       </c>
-      <c r="B468" s="22"/>
+      <c r="B468" s="18"/>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A469" s="22"/>
-      <c r="B469" s="22"/>
+      <c r="A469" s="18"/>
+      <c r="B469" s="18"/>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A470" s="22" t="s">
+      <c r="A470" s="18" t="s">
         <v>564</v>
       </c>
-      <c r="B470" s="22"/>
+      <c r="B470" s="18"/>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A471" s="22"/>
-      <c r="B471" s="22"/>
+      <c r="A471" s="18"/>
+      <c r="B471" s="18"/>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A472" s="22" t="s">
+      <c r="A472" s="18" t="s">
         <v>379</v>
       </c>
-      <c r="B472" s="22"/>
+      <c r="B472" s="18"/>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A473" s="22" t="s">
+      <c r="A473" s="18" t="s">
         <v>563</v>
       </c>
-      <c r="B473" s="22"/>
+      <c r="B473" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9751,298 +9717,298 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C233CBA4-E24B-474C-A09B-454633788BED}">
   <dimension ref="A1:C103"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.85546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" style="25" customWidth="1"/>
-    <col min="3" max="6" width="9.140625" style="25"/>
-    <col min="7" max="7" width="12" style="25" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="25"/>
+    <col min="1" max="1" width="28.85546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" style="20" customWidth="1"/>
+    <col min="3" max="6" width="9.140625" style="20"/>
+    <col min="7" max="7" width="12" style="20" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="21" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="27" t="s">
         <v>845</v>
       </c>
-      <c r="B2" s="26"/>
+      <c r="B2" s="27"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="20" t="s">
         <v>844</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="20" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="20" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="20" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="20" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="20" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="20" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="20" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="20" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="20" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="20" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="20" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="25" t="s">
+      <c r="A25" s="20" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="20" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="20" t="s">
         <v>843</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="25" t="s">
+      <c r="A30" s="20" t="s">
         <v>842</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="20" t="s">
         <v>841</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="25" t="s">
+      <c r="A34" s="20" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="25" t="s">
+      <c r="A36" s="20" t="s">
         <v>840</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="20" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="25" t="s">
+      <c r="A40" s="20" t="s">
         <v>775</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="25" t="s">
+      <c r="A42" s="20" t="s">
         <v>839</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="25" t="s">
+      <c r="A44" s="20" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="25" t="s">
+      <c r="A46" s="20" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="25" t="s">
+      <c r="A48" s="20" t="s">
         <v>838</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="25" t="s">
+      <c r="A50" s="20" t="s">
         <v>837</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="25" t="s">
+      <c r="A52" s="20" t="s">
         <v>766</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="25" t="s">
+      <c r="A54" s="20" t="s">
         <v>836</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="25" t="s">
+      <c r="A56" s="20" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="25" t="s">
+      <c r="A58" s="20" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="25" t="s">
+      <c r="A60" s="20" t="s">
         <v>835</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="25" t="s">
+      <c r="A62" s="20" t="s">
         <v>834</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="25" t="s">
+      <c r="A64" s="20" t="s">
         <v>758</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="25" t="s">
+      <c r="A66" s="20" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="25" t="s">
+      <c r="A67" s="20" t="s">
         <v>833</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="25" t="s">
+      <c r="A69" s="20" t="s">
         <v>832</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="25" t="s">
+      <c r="A71" s="20" t="s">
         <v>831</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="25" t="s">
+      <c r="A73" s="20" t="s">
         <v>830</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="25" t="s">
+      <c r="A75" s="20" t="s">
         <v>829</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="25" t="s">
+      <c r="A77" s="20" t="s">
         <v>828</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="25" t="s">
+      <c r="A79" s="20" t="s">
         <v>827</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="25" t="s">
+      <c r="A81" s="20" t="s">
         <v>826</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="25" t="s">
+      <c r="A83" s="20" t="s">
         <v>825</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="25" t="s">
+      <c r="A85" s="20" t="s">
         <v>824</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="25" t="s">
+      <c r="A87" s="20" t="s">
         <v>823</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="25" t="s">
+      <c r="A89" s="20" t="s">
         <v>822</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="25" t="s">
+      <c r="A91" s="20" t="s">
         <v>821</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="25" t="s">
+      <c r="A93" s="20" t="s">
         <v>820</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="25" t="s">
+      <c r="A95" s="20" t="s">
         <v>819</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="25" t="s">
+      <c r="A97" s="20" t="s">
         <v>818</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="25" t="s">
+      <c r="A99" s="20" t="s">
         <v>817</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="25" t="s">
+      <c r="A101" s="20" t="s">
         <v>816</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="25" t="s">
+      <c r="A103" s="20" t="s">
         <v>815</v>
       </c>
     </row>
